--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27700" windowHeight="22400"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="629">
   <si>
     <t>序号</t>
   </si>
@@ -28,91 +28,181 @@
     <t>鲍奕坤</t>
   </si>
   <si>
+    <t>*%1i~a</t>
+  </si>
+  <si>
     <t>陈锦宇</t>
   </si>
   <si>
+    <t>BKm9~A</t>
+  </si>
+  <si>
     <t>陈显凡</t>
   </si>
   <si>
+    <t>A&amp;Lh!V</t>
+  </si>
+  <si>
     <t>陈宥玮</t>
   </si>
   <si>
+    <t>l%Hlu8</t>
+  </si>
+  <si>
     <t>陈梓泓</t>
   </si>
   <si>
+    <t>oK~ORo</t>
+  </si>
+  <si>
     <t>戴家乐</t>
   </si>
   <si>
+    <t>6@RL28</t>
+  </si>
+  <si>
     <t>符谷基</t>
   </si>
   <si>
+    <t>xqwWTE</t>
+  </si>
+  <si>
     <t>符曼妮</t>
   </si>
   <si>
+    <t>vA~Vxr</t>
+  </si>
+  <si>
     <t>郭天阳</t>
   </si>
   <si>
+    <t>UGJfav</t>
+  </si>
+  <si>
     <t>候玺伦</t>
   </si>
   <si>
+    <t>k52nNq</t>
+  </si>
+  <si>
     <t>胡其巧</t>
   </si>
   <si>
+    <t>t47LY0</t>
+  </si>
+  <si>
     <t>黄堂卫</t>
   </si>
   <si>
+    <t>8SLtB%</t>
+  </si>
+  <si>
     <t>黄雨萱</t>
   </si>
   <si>
+    <t>8vPrZM</t>
+  </si>
+  <si>
     <t>李奥博</t>
   </si>
   <si>
+    <t>&amp;#aPFD</t>
+  </si>
+  <si>
     <t>李婉祯</t>
   </si>
   <si>
+    <t>scxXBK</t>
+  </si>
+  <si>
     <t>李先国</t>
   </si>
   <si>
+    <t>YofVmT</t>
+  </si>
+  <si>
     <t>梁健新</t>
   </si>
   <si>
+    <t>vuomHJ</t>
+  </si>
+  <si>
     <t>林思妤</t>
   </si>
   <si>
+    <t>h9!aAq</t>
+  </si>
+  <si>
     <t>罗俊豪</t>
   </si>
   <si>
+    <t>PtYAN3</t>
+  </si>
+  <si>
     <t>骆怡静</t>
   </si>
   <si>
+    <t>fE3~ho</t>
+  </si>
+  <si>
     <t>莫如璇</t>
   </si>
   <si>
+    <t>B25KpG</t>
+  </si>
+  <si>
     <t>莫耀翔</t>
   </si>
   <si>
+    <t>zEpwwW</t>
+  </si>
+  <si>
     <t>彭安欣</t>
   </si>
   <si>
+    <t>1Iz~&amp;B</t>
+  </si>
+  <si>
     <t>苏运锴</t>
   </si>
   <si>
+    <t>p8E%nD</t>
+  </si>
+  <si>
     <t>唐静轩</t>
   </si>
   <si>
+    <t>OCg$mJ</t>
+  </si>
+  <si>
     <t>唐蔚良</t>
   </si>
   <si>
+    <t>dGumc&amp;</t>
+  </si>
+  <si>
     <t>王海清</t>
   </si>
   <si>
+    <t>y0Fd#L</t>
+  </si>
+  <si>
     <t>王一琳</t>
   </si>
   <si>
+    <t>LXueQX</t>
+  </si>
+  <si>
     <t>吴槟楠</t>
   </si>
   <si>
+    <t>qkvbwL</t>
+  </si>
+  <si>
     <t>吴洁怡</t>
+  </si>
+  <si>
+    <t>!650sb</t>
   </si>
   <si>
     <r>
@@ -135,10 +225,19 @@
     </r>
   </si>
   <si>
+    <t>q9@!s3</t>
+  </si>
+  <si>
     <t>肖佳佳</t>
   </si>
   <si>
+    <t>NUx28*</t>
+  </si>
+  <si>
     <t>邢增益</t>
+  </si>
+  <si>
+    <t>Y^IfmC</t>
   </si>
   <si>
     <r>
@@ -161,10 +260,19 @@
     </r>
   </si>
   <si>
+    <t>f9Gc!X</t>
+  </si>
+  <si>
     <t>杨康瑞</t>
   </si>
   <si>
+    <t>agjykI</t>
+  </si>
+  <si>
     <t>叶长泓</t>
+  </si>
+  <si>
+    <t>&amp;YGUpb</t>
   </si>
   <si>
     <r>
@@ -187,832 +295,1663 @@
     </r>
   </si>
   <si>
+    <t>bY7$%B</t>
+  </si>
+  <si>
     <t>张满钰</t>
   </si>
   <si>
+    <t>C!B!Tx</t>
+  </si>
+  <si>
     <t>张宇茂</t>
   </si>
   <si>
+    <t>9yQtcV</t>
+  </si>
+  <si>
     <t>钟远宜</t>
   </si>
   <si>
+    <t>qgnbNV</t>
+  </si>
+  <si>
     <t>周召栋</t>
   </si>
   <si>
+    <t>jJUHTX</t>
+  </si>
+  <si>
     <t>闭永康</t>
   </si>
   <si>
+    <t>E%ULmv</t>
+  </si>
+  <si>
     <t>曾彦凯</t>
   </si>
   <si>
+    <t>&amp;sOk~T</t>
+  </si>
+  <si>
     <t>陈佳敏</t>
   </si>
   <si>
+    <t>6O68@a</t>
+  </si>
+  <si>
     <t>陈相君</t>
   </si>
   <si>
+    <t>nAM@1M</t>
+  </si>
+  <si>
     <t>陈霄亮</t>
   </si>
   <si>
+    <t>TN18UU</t>
+  </si>
+  <si>
     <t>陈雨汐</t>
   </si>
   <si>
+    <t>0a5q89</t>
+  </si>
+  <si>
     <t>陈昀邑</t>
   </si>
   <si>
+    <t>%tO*FH</t>
+  </si>
+  <si>
     <t>邓成辉</t>
   </si>
   <si>
+    <t>InZC2N</t>
+  </si>
+  <si>
     <t>符鸿涛</t>
   </si>
   <si>
+    <t>&amp;2FjY6</t>
+  </si>
+  <si>
     <t>关婷婷</t>
   </si>
   <si>
+    <t>!NkNz$</t>
+  </si>
+  <si>
     <t>郭彦宏</t>
   </si>
   <si>
+    <t>7ynVxL</t>
+  </si>
+  <si>
     <t>韩喜畴</t>
   </si>
   <si>
+    <t>U#A8$N</t>
+  </si>
+  <si>
     <t>韩永晶</t>
   </si>
   <si>
+    <t>r9oIgU</t>
+  </si>
+  <si>
     <t>黄榆敏</t>
   </si>
   <si>
+    <t>ULuBVB</t>
+  </si>
+  <si>
     <t>黄梓皓</t>
   </si>
   <si>
+    <t>d#Loca</t>
+  </si>
+  <si>
     <t>吉彦伯</t>
   </si>
   <si>
+    <t>H5HxF5</t>
+  </si>
+  <si>
     <t>林静宇</t>
   </si>
   <si>
+    <t>@D4oJ7</t>
+  </si>
+  <si>
     <t>林先宇</t>
   </si>
   <si>
+    <t>Z!C8eg</t>
+  </si>
+  <si>
     <t>罗丽萍</t>
   </si>
   <si>
+    <t>jRBGGE</t>
+  </si>
+  <si>
     <t>孟琬清</t>
   </si>
   <si>
+    <t>gWE9RD</t>
+  </si>
+  <si>
     <t>欧阳润</t>
   </si>
   <si>
+    <t>8mHNHU</t>
+  </si>
+  <si>
     <t>庞雯文</t>
   </si>
   <si>
+    <t>yppQkk</t>
+  </si>
+  <si>
     <t>孙天福</t>
   </si>
   <si>
+    <t>UsDsSw</t>
+  </si>
+  <si>
     <t>唐  轩</t>
   </si>
   <si>
+    <t>W8kj~K</t>
+  </si>
+  <si>
     <t>唐一夫</t>
   </si>
   <si>
+    <t>kZGiNt</t>
+  </si>
+  <si>
     <t>王佳仪</t>
   </si>
   <si>
+    <t>3ywFKj</t>
+  </si>
+  <si>
     <t>王旭</t>
   </si>
   <si>
+    <t>h!WrP5</t>
+  </si>
+  <si>
     <t>王阳钰</t>
   </si>
   <si>
+    <t>MsJ&amp;7H</t>
+  </si>
+  <si>
     <t>王瑜钊</t>
   </si>
   <si>
+    <t>3ixGBh</t>
+  </si>
+  <si>
     <t>吴多沅</t>
   </si>
   <si>
+    <t>DV62IP</t>
+  </si>
+  <si>
     <t>吴宇森</t>
   </si>
   <si>
+    <t>n&amp;p7LL</t>
+  </si>
+  <si>
     <t>肖  淋</t>
   </si>
   <si>
+    <t>5qMYNh</t>
+  </si>
+  <si>
     <t>谢海裕</t>
   </si>
   <si>
+    <t>%f%~11</t>
+  </si>
+  <si>
     <t>徐小仪</t>
   </si>
   <si>
+    <t>5$VaqC</t>
+  </si>
+  <si>
     <t>杨钦翰</t>
   </si>
   <si>
+    <t>OT2ltv</t>
+  </si>
+  <si>
     <t>叶子豪</t>
   </si>
   <si>
+    <t>yeQ$tz</t>
+  </si>
+  <si>
     <t>云  涓</t>
   </si>
   <si>
+    <t>ZkeRIL</t>
+  </si>
+  <si>
     <t>张子恒</t>
   </si>
   <si>
+    <t>POIuR6</t>
+  </si>
+  <si>
     <t>衡眉</t>
   </si>
   <si>
+    <t>L&amp;*ttK</t>
+  </si>
+  <si>
     <t>梁佳恒</t>
   </si>
   <si>
+    <t>C3kCnp</t>
+  </si>
+  <si>
     <t>杨敏燕</t>
   </si>
   <si>
+    <t>zB@w@k</t>
+  </si>
+  <si>
     <t>谭雨欣</t>
   </si>
   <si>
+    <t>tw%Y%%</t>
+  </si>
+  <si>
     <t>杨锦鸿</t>
   </si>
   <si>
+    <t>KCAWc$</t>
+  </si>
+  <si>
     <t>杨泽伦</t>
   </si>
   <si>
+    <t>6Nr4PM</t>
+  </si>
+  <si>
     <t>王皓麟</t>
   </si>
   <si>
+    <t>if$X1E</t>
+  </si>
+  <si>
     <t>李邦凯</t>
   </si>
   <si>
+    <t>ZR&amp;bc4</t>
+  </si>
+  <si>
     <t>孙菁</t>
   </si>
   <si>
+    <t>1xXd7$</t>
+  </si>
+  <si>
     <t>吴子旭</t>
   </si>
   <si>
+    <t>wXALuB</t>
+  </si>
+  <si>
     <t>解禹泽</t>
   </si>
   <si>
+    <t>tBhRu6</t>
+  </si>
+  <si>
     <t>洪睿</t>
   </si>
   <si>
+    <t>#5KI$s</t>
+  </si>
+  <si>
     <t>程池</t>
   </si>
   <si>
+    <t>9ZIrPo</t>
+  </si>
+  <si>
     <t>李想</t>
   </si>
   <si>
+    <t>FNVF%U</t>
+  </si>
+  <si>
     <t>洪阳</t>
   </si>
   <si>
+    <t>3a21Kr</t>
+  </si>
+  <si>
     <t>黄思语</t>
   </si>
   <si>
+    <t>9iDpdW</t>
+  </si>
+  <si>
     <t>庄国策</t>
   </si>
   <si>
+    <t>uittp5</t>
+  </si>
+  <si>
     <t>罗娴</t>
   </si>
   <si>
+    <t>hZ7aOH</t>
+  </si>
+  <si>
     <t>孙笠镤</t>
   </si>
   <si>
+    <t>QTwLsn</t>
+  </si>
+  <si>
     <t>朱敏敏</t>
   </si>
   <si>
+    <t>v*NuZ7</t>
+  </si>
+  <si>
     <t>王舒艺</t>
   </si>
   <si>
+    <t>b3igGy</t>
+  </si>
+  <si>
     <t>肖旻雯</t>
   </si>
   <si>
+    <t>ykRhtH</t>
+  </si>
+  <si>
     <t>孔维一</t>
   </si>
   <si>
+    <t>dA0Jys</t>
+  </si>
+  <si>
     <t>季皖渝</t>
   </si>
   <si>
+    <t>%tFS#M</t>
+  </si>
+  <si>
     <t>段泓成</t>
   </si>
   <si>
+    <t>%GCUk&amp;</t>
+  </si>
+  <si>
     <t>秦意刚</t>
   </si>
   <si>
+    <t>6ZOtMq</t>
+  </si>
+  <si>
     <t>杨竣淏</t>
   </si>
   <si>
+    <t>Lw8Q$$</t>
+  </si>
+  <si>
     <t>林倩如</t>
   </si>
   <si>
+    <t>xjqkWa</t>
+  </si>
+  <si>
     <t>杨仁洁</t>
   </si>
   <si>
+    <t>!zjncT</t>
+  </si>
+  <si>
     <t>祝亚桐</t>
   </si>
   <si>
+    <t>q%^AGx</t>
+  </si>
+  <si>
     <t>曾佳琳</t>
   </si>
   <si>
+    <t>QOzfOZ</t>
+  </si>
+  <si>
     <t>张艺潇</t>
   </si>
   <si>
+    <t>BF4m3U</t>
+  </si>
+  <si>
     <t>金浩然</t>
   </si>
   <si>
+    <t>^pqV6i</t>
+  </si>
+  <si>
     <t>陈俊桦</t>
   </si>
   <si>
+    <t>@e4iMD</t>
+  </si>
+  <si>
     <t>程作宇</t>
   </si>
   <si>
+    <t>wSvyTp</t>
+  </si>
+  <si>
     <t>李海山</t>
   </si>
   <si>
+    <t>iaCEd3</t>
+  </si>
+  <si>
     <t>许可健</t>
   </si>
   <si>
+    <t>J$jqnH</t>
+  </si>
+  <si>
     <t>蔡  友</t>
   </si>
   <si>
+    <t>05h8ru</t>
+  </si>
+  <si>
     <t>陈  婕</t>
   </si>
   <si>
+    <t>S7sBgu</t>
+  </si>
+  <si>
     <t>陈崇裕</t>
   </si>
   <si>
+    <t>i2JNnD</t>
+  </si>
+  <si>
     <t>陈俊儒</t>
   </si>
   <si>
+    <t>7Vdn*A</t>
+  </si>
+  <si>
     <t>陈烊壮</t>
   </si>
   <si>
+    <t>!mB&amp;cQ</t>
+  </si>
+  <si>
     <t>陈依仪</t>
   </si>
   <si>
+    <t>V3jp#P</t>
+  </si>
+  <si>
     <t>陈在海</t>
   </si>
   <si>
+    <t>fXuJkM</t>
+  </si>
+  <si>
     <t>董晟祺</t>
   </si>
   <si>
+    <t>yZ#M9y</t>
+  </si>
+  <si>
     <t>符志海</t>
   </si>
   <si>
+    <t>zRrc*#</t>
+  </si>
+  <si>
     <t>何彬彬</t>
   </si>
   <si>
+    <t>gDszvO</t>
+  </si>
+  <si>
     <t>黄  宸</t>
   </si>
   <si>
+    <t>VN$ced</t>
+  </si>
+  <si>
     <t>黄心怡</t>
   </si>
   <si>
+    <t>TP*ObQ</t>
+  </si>
+  <si>
     <t>吉家琛</t>
   </si>
   <si>
+    <t>IfWER~</t>
+  </si>
+  <si>
     <t>李  琳</t>
   </si>
   <si>
+    <t>nTymOT</t>
+  </si>
+  <si>
     <t>李传华</t>
   </si>
   <si>
+    <t>bjH*G8</t>
+  </si>
+  <si>
     <t>梁其洲</t>
   </si>
   <si>
+    <t>7604Bl</t>
+  </si>
+  <si>
     <t>梁钰偲</t>
   </si>
   <si>
+    <t>*uVxTR</t>
+  </si>
+  <si>
     <t>陆玫伶</t>
   </si>
   <si>
+    <t>3ONj3Z</t>
+  </si>
+  <si>
     <t>吕书丞</t>
   </si>
   <si>
+    <t>yF7IF9</t>
+  </si>
+  <si>
     <t>蒙王妃</t>
   </si>
   <si>
+    <t>fjT05t</t>
+  </si>
+  <si>
     <t>潘朵拉</t>
   </si>
   <si>
+    <t>YBT4l6</t>
+  </si>
+  <si>
     <t>潘家宽</t>
   </si>
   <si>
+    <t>m##drV</t>
+  </si>
+  <si>
     <t>覃飞钰</t>
   </si>
   <si>
+    <t>Aoqura</t>
+  </si>
+  <si>
     <t>谭  翘</t>
   </si>
   <si>
+    <t>I!yhj1</t>
+  </si>
+  <si>
     <t>唐英议</t>
   </si>
   <si>
+    <t>aNKHpX</t>
+  </si>
+  <si>
     <t>王邦谊</t>
   </si>
   <si>
+    <t>nq@sLu</t>
+  </si>
+  <si>
     <t>王金鲍</t>
   </si>
   <si>
+    <t>PNAicy</t>
+  </si>
+  <si>
     <t>王振浩</t>
   </si>
   <si>
+    <t>Dvf&amp;4B</t>
+  </si>
+  <si>
     <t>翁小珺</t>
   </si>
   <si>
+    <t>uq%t88</t>
+  </si>
+  <si>
     <t>刘心岚</t>
   </si>
   <si>
+    <t>695e#e</t>
+  </si>
+  <si>
     <t>吴毓瑞</t>
   </si>
   <si>
+    <t>RdbfhT</t>
+  </si>
+  <si>
     <t>徐静怡</t>
   </si>
   <si>
+    <t>h4JhVu</t>
+  </si>
+  <si>
     <t>余湘湘</t>
   </si>
   <si>
+    <t>8Imj!b</t>
+  </si>
+  <si>
     <t>喻至嵘</t>
   </si>
   <si>
+    <t>$kwHff</t>
+  </si>
+  <si>
     <t>郑  隆</t>
   </si>
   <si>
+    <t>7i2ohb</t>
+  </si>
+  <si>
     <t>郑晴璐</t>
   </si>
   <si>
+    <t>BKGEB0</t>
+  </si>
+  <si>
     <t>郑天禧</t>
   </si>
   <si>
+    <t>mdTbZq</t>
+  </si>
+  <si>
     <t>祝  康</t>
   </si>
   <si>
+    <t>8IEx#J</t>
+  </si>
+  <si>
     <t>韩伟杰</t>
   </si>
   <si>
+    <t>gcpl9Q</t>
+  </si>
+  <si>
     <t>廖  鹏</t>
   </si>
   <si>
+    <t>Kqh%Dy</t>
+  </si>
+  <si>
     <t>蔡劲鸿</t>
   </si>
   <si>
+    <t>fb547f</t>
+  </si>
+  <si>
     <t>陈嘉</t>
   </si>
   <si>
+    <t>Bc%Gqa</t>
+  </si>
+  <si>
     <t>陈大纬</t>
   </si>
   <si>
+    <t>q6rn&amp;d</t>
+  </si>
+  <si>
     <t>陈尚余</t>
   </si>
   <si>
+    <t>gaHVUV</t>
+  </si>
+  <si>
     <t>陈一赫</t>
   </si>
   <si>
+    <t>uj1Kp3</t>
+  </si>
+  <si>
     <t>陈泽斐</t>
   </si>
   <si>
+    <t>$@csFI</t>
+  </si>
+  <si>
     <t>方育</t>
   </si>
   <si>
+    <t>fl9L&amp;l</t>
+  </si>
+  <si>
     <t>符宝蓉</t>
   </si>
   <si>
+    <t>KJCk4k</t>
+  </si>
+  <si>
     <t>傅佑杰</t>
   </si>
   <si>
+    <t>*k32eT</t>
+  </si>
+  <si>
     <t>何浩宾</t>
   </si>
   <si>
+    <t>LQHfmC</t>
+  </si>
+  <si>
     <t>黄崇铭</t>
   </si>
   <si>
+    <t>~AQptJ</t>
+  </si>
+  <si>
     <t>黄晓曦</t>
   </si>
   <si>
+    <t>SozOVn</t>
+  </si>
+  <si>
     <t>简德弦</t>
   </si>
   <si>
+    <t>YmDGw0</t>
+  </si>
+  <si>
     <t>李斯家</t>
   </si>
   <si>
+    <t>n5KUzl</t>
+  </si>
+  <si>
     <t>梁迅</t>
   </si>
   <si>
+    <t>*VsM4c</t>
+  </si>
+  <si>
     <t>梁振华</t>
   </si>
   <si>
+    <t>7m2$*0</t>
+  </si>
+  <si>
     <t>林展鹏</t>
   </si>
   <si>
+    <t>*4~2V$</t>
+  </si>
+  <si>
     <t>柳晓颖</t>
   </si>
   <si>
+    <t>lRU!uw</t>
+  </si>
+  <si>
     <t>马钰</t>
   </si>
   <si>
+    <t>7NSJy8</t>
+  </si>
+  <si>
     <t>蒙钟程</t>
   </si>
   <si>
+    <t>BkUOsu</t>
+  </si>
+  <si>
     <t>欧一喧</t>
   </si>
   <si>
+    <t>tqF^Gs</t>
+  </si>
+  <si>
     <t>彭嘉诚</t>
   </si>
   <si>
+    <t>ngHeaz</t>
+  </si>
+  <si>
     <t>王敏</t>
   </si>
   <si>
+    <t>y1Fu#O</t>
+  </si>
+  <si>
     <t>王邦颉</t>
   </si>
   <si>
+    <t>MhN4Gk</t>
+  </si>
+  <si>
     <t>王彤</t>
   </si>
   <si>
+    <t>M*XHsi</t>
+  </si>
+  <si>
     <t>王子文</t>
   </si>
   <si>
+    <t>@!35kS</t>
+  </si>
+  <si>
     <t>翁慧琳</t>
   </si>
   <si>
+    <t>BTfPa0</t>
+  </si>
+  <si>
     <t>吴俊樘</t>
   </si>
   <si>
+    <t>b^Vev^</t>
+  </si>
+  <si>
     <t>夏铭源</t>
   </si>
   <si>
+    <t>ESe1hf</t>
+  </si>
+  <si>
     <t>邢钰佳</t>
   </si>
   <si>
+    <t>bA7kha</t>
+  </si>
+  <si>
     <t>徐川洲</t>
   </si>
   <si>
+    <t>i96lRq</t>
+  </si>
+  <si>
     <t>杨洋</t>
   </si>
   <si>
+    <t>$pHyYq</t>
+  </si>
+  <si>
     <t>张程</t>
   </si>
   <si>
+    <t>dojpdY</t>
+  </si>
+  <si>
     <t>郑敦程</t>
   </si>
   <si>
+    <t>HXI2RI</t>
+  </si>
+  <si>
     <t>郑君浩</t>
   </si>
   <si>
+    <t>t8gcyK</t>
+  </si>
+  <si>
     <t>郑宇新</t>
   </si>
   <si>
+    <t>X4c#py</t>
+  </si>
+  <si>
     <t>庄国德</t>
   </si>
   <si>
+    <t>e7U9Op</t>
+  </si>
+  <si>
     <t>谢嘉诚</t>
   </si>
   <si>
+    <t>JGtNcm</t>
+  </si>
+  <si>
     <t>吴淑伦</t>
   </si>
   <si>
+    <t>R*XrPO</t>
+  </si>
+  <si>
     <t>曾垂奋</t>
   </si>
   <si>
+    <t>86NNAL</t>
+  </si>
+  <si>
     <t>陈泓宇</t>
   </si>
   <si>
+    <t>D79SgK</t>
+  </si>
+  <si>
     <t>陈世杰</t>
   </si>
   <si>
+    <t>9dmnFS</t>
+  </si>
+  <si>
     <t>陈宣谷</t>
   </si>
   <si>
+    <t>4co~tD</t>
+  </si>
+  <si>
     <t>陈颖宇</t>
   </si>
   <si>
+    <t>6Eq!dy</t>
+  </si>
+  <si>
     <t>陈志函</t>
   </si>
   <si>
+    <t>p7H%1T</t>
+  </si>
+  <si>
     <t>冯慧璇</t>
   </si>
   <si>
+    <t>yvIgnV</t>
+  </si>
+  <si>
     <t>冯学鸿</t>
   </si>
   <si>
+    <t>VbrfhZ</t>
+  </si>
+  <si>
     <t>葛净彤</t>
   </si>
   <si>
+    <t>DwJ^~U</t>
+  </si>
+  <si>
     <t>何声言</t>
   </si>
   <si>
+    <t>^miUt$</t>
+  </si>
+  <si>
     <t>黄宏壮</t>
   </si>
   <si>
+    <t>sx@FFe</t>
+  </si>
+  <si>
     <t>黄诗涵</t>
   </si>
   <si>
+    <t>OoVf*S</t>
+  </si>
+  <si>
     <t>李涛</t>
   </si>
   <si>
+    <t>CI*WHm</t>
+  </si>
+  <si>
     <t>李志铿</t>
   </si>
   <si>
+    <t>9jdQZX</t>
+  </si>
+  <si>
     <t>连婧羽</t>
   </si>
   <si>
+    <t>uwm$BW</t>
+  </si>
+  <si>
     <t>林炽</t>
   </si>
   <si>
+    <t>m@L8!X</t>
+  </si>
+  <si>
     <t>刘顺涛</t>
   </si>
   <si>
+    <t>tf4MtP</t>
+  </si>
+  <si>
     <t>刘欣洁</t>
   </si>
   <si>
+    <t>rFzeVC</t>
+  </si>
+  <si>
     <t>莫晋</t>
   </si>
   <si>
+    <t>xT3EKm</t>
+  </si>
+  <si>
     <t>聂  淼</t>
   </si>
   <si>
+    <t>53RdLh</t>
+  </si>
+  <si>
     <t>史贵伟</t>
   </si>
   <si>
+    <t>msEHI5</t>
+  </si>
+  <si>
     <t>宋晓芬</t>
   </si>
   <si>
+    <t>R3$Uvr</t>
+  </si>
+  <si>
     <t>唐  浩</t>
   </si>
   <si>
+    <t>qMUbtB</t>
+  </si>
+  <si>
     <t>涂文馨</t>
   </si>
   <si>
+    <t>vD%L0#</t>
+  </si>
+  <si>
     <t>王丁乐</t>
   </si>
   <si>
+    <t>rlQ4IZ</t>
+  </si>
+  <si>
     <t>王梓钰</t>
   </si>
   <si>
+    <t>98IWwL</t>
+  </si>
+  <si>
     <t>王梓凝</t>
   </si>
   <si>
+    <t>@@c4ni</t>
+  </si>
+  <si>
     <t>温紫翠</t>
   </si>
   <si>
+    <t>uPJCls</t>
+  </si>
+  <si>
     <t>吴英玲</t>
   </si>
   <si>
+    <t>z6!&amp;5y</t>
+  </si>
+  <si>
     <t>吴其鸿</t>
   </si>
   <si>
+    <t>qJNjK3</t>
+  </si>
+  <si>
     <t>徐锴智</t>
   </si>
   <si>
+    <t>e9m4dZ</t>
+  </si>
+  <si>
     <t>杨夏瑜</t>
   </si>
   <si>
+    <t>NEDCYi</t>
+  </si>
+  <si>
     <t>杨祖源</t>
   </si>
   <si>
+    <t>kLPb3j</t>
+  </si>
+  <si>
     <t>张家瑋</t>
   </si>
   <si>
+    <t>x^rGUB</t>
+  </si>
+  <si>
     <t>张铁凌</t>
   </si>
   <si>
+    <t>*IEeHW</t>
+  </si>
+  <si>
     <t>郑涵</t>
   </si>
   <si>
+    <t>iPP!lS</t>
+  </si>
+  <si>
     <t>周国豪</t>
   </si>
   <si>
+    <t>%#T!VF</t>
+  </si>
+  <si>
     <t>庄铭浩</t>
   </si>
   <si>
+    <t>#TekBa</t>
+  </si>
+  <si>
     <t>左雨穗</t>
   </si>
   <si>
+    <t>Kv2JHb</t>
+  </si>
+  <si>
     <t>何昌泰</t>
   </si>
   <si>
+    <t>^SP4wp</t>
+  </si>
+  <si>
     <t>王思尹</t>
   </si>
   <si>
+    <t>c&amp;cziq</t>
+  </si>
+  <si>
     <t>王茹</t>
   </si>
   <si>
+    <t>JEQL9K</t>
+  </si>
+  <si>
     <t>黄今畅</t>
   </si>
   <si>
+    <t>q8pGH&amp;</t>
+  </si>
+  <si>
     <t>史运炜</t>
   </si>
   <si>
+    <t>Ffmm$w</t>
+  </si>
+  <si>
     <t>唐欣怡</t>
   </si>
   <si>
+    <t>cSN8DL</t>
+  </si>
+  <si>
     <t>高忠俊</t>
   </si>
   <si>
+    <t>TFZ4t^</t>
+  </si>
+  <si>
     <t>雷宝墨</t>
   </si>
   <si>
+    <t>yV8d3x</t>
+  </si>
+  <si>
     <t>郑建辉</t>
   </si>
   <si>
+    <t>eGH5!O</t>
+  </si>
+  <si>
     <t>陈智远</t>
   </si>
   <si>
+    <t>fsmQqG</t>
+  </si>
+  <si>
     <t>王霖</t>
   </si>
   <si>
+    <t>qQD@st</t>
+  </si>
+  <si>
     <t>陈思好</t>
   </si>
   <si>
+    <t>taDDcO</t>
+  </si>
+  <si>
     <t>梁超文</t>
   </si>
   <si>
+    <t>#YX*H0</t>
+  </si>
+  <si>
     <t>何宇承</t>
   </si>
   <si>
+    <t>USXSJx</t>
+  </si>
+  <si>
     <t>薛智耀</t>
   </si>
   <si>
+    <t>KLYTiz</t>
+  </si>
+  <si>
     <t>佘家宜</t>
   </si>
   <si>
+    <t>#Q8h~V</t>
+  </si>
+  <si>
     <t>王定宇</t>
   </si>
   <si>
+    <t>0nDGdc</t>
+  </si>
+  <si>
     <t>符芳源</t>
   </si>
   <si>
+    <t>tNhnm^</t>
+  </si>
+  <si>
     <t>方雪蓉</t>
   </si>
   <si>
+    <t>B8vNaJ</t>
+  </si>
+  <si>
     <t>杨雯婷</t>
   </si>
   <si>
+    <t>IToaOA</t>
+  </si>
+  <si>
     <t>刘元阡</t>
   </si>
   <si>
+    <t>3lO2h^</t>
+  </si>
+  <si>
     <t>曾宏源</t>
   </si>
   <si>
+    <t>nJYwMn</t>
+  </si>
+  <si>
     <t>严教豪</t>
   </si>
   <si>
+    <t>b!WyCu</t>
+  </si>
+  <si>
     <t>陈汲极</t>
   </si>
   <si>
+    <t>e1zqm5</t>
+  </si>
+  <si>
     <t>温韩飞</t>
   </si>
   <si>
+    <t>V^6QvA</t>
+  </si>
+  <si>
     <t>林明超</t>
   </si>
   <si>
+    <t>FoKeaY</t>
+  </si>
+  <si>
     <t>符雅雯</t>
   </si>
   <si>
+    <t>%~GtSt</t>
+  </si>
+  <si>
     <t>王源</t>
   </si>
   <si>
+    <t>%mj*k&amp;</t>
+  </si>
+  <si>
     <t>武博仲</t>
   </si>
   <si>
+    <t>kqn#gA</t>
+  </si>
+  <si>
     <t>张荣晔</t>
   </si>
   <si>
+    <t>xB4oS*</t>
+  </si>
+  <si>
     <t>左一睿</t>
   </si>
   <si>
+    <t>id~brO</t>
+  </si>
+  <si>
     <t>唐才乐</t>
   </si>
   <si>
+    <t>L9T!zU</t>
+  </si>
+  <si>
     <t>曹歆然</t>
   </si>
   <si>
+    <t>E&amp;b#rI</t>
+  </si>
+  <si>
     <t>吴树良</t>
   </si>
   <si>
+    <t>5tGwyk</t>
+  </si>
+  <si>
     <t>陈思宇</t>
   </si>
   <si>
+    <t>zod811</t>
+  </si>
+  <si>
     <t>李文博</t>
   </si>
   <si>
+    <t>&amp;Bj6X%</t>
+  </si>
+  <si>
     <t>牟桐瑶</t>
   </si>
   <si>
+    <t>*#nvq^</t>
+  </si>
+  <si>
     <t>曹玥</t>
   </si>
   <si>
+    <t>3K*i*#</t>
+  </si>
+  <si>
     <t>周家旺</t>
   </si>
   <si>
+    <t>CV1Bq6</t>
+  </si>
+  <si>
     <t>王雪玲</t>
   </si>
   <si>
+    <t>&amp;SDMEw</t>
+  </si>
+  <si>
     <t>曾令杰</t>
   </si>
   <si>
+    <t>pdDvbw</t>
+  </si>
+  <si>
     <t>陈继聪</t>
   </si>
   <si>
+    <t>YtXchC</t>
+  </si>
+  <si>
     <t>陈堇墨</t>
   </si>
   <si>
+    <t>i*&amp;4S~</t>
+  </si>
+  <si>
     <t>陈伟鹏</t>
   </si>
   <si>
+    <t>PywEoW</t>
+  </si>
+  <si>
     <t>程俊喆</t>
   </si>
   <si>
+    <t>vtsteh</t>
+  </si>
+  <si>
     <t>范馨予</t>
   </si>
   <si>
+    <t>kEmjWF</t>
+  </si>
+  <si>
     <t>符芳卓</t>
   </si>
   <si>
+    <t>kpy9$k</t>
+  </si>
+  <si>
     <t>符祺琳</t>
   </si>
   <si>
+    <t>xcEzAR</t>
+  </si>
+  <si>
     <t>洪智贤</t>
   </si>
   <si>
+    <t>my#wbT</t>
+  </si>
+  <si>
     <t>黄彩玲</t>
   </si>
   <si>
+    <t>zqjp6E</t>
+  </si>
+  <si>
     <t>黄子圆</t>
   </si>
   <si>
+    <t>iO7o%c</t>
+  </si>
+  <si>
     <t>黎宇翔</t>
   </si>
   <si>
+    <t>4oYBsb</t>
+  </si>
+  <si>
     <t>李文潮</t>
   </si>
   <si>
+    <t>KfzLuj</t>
+  </si>
+  <si>
     <t>李欣瑶</t>
   </si>
   <si>
+    <t>j2H@xE</t>
+  </si>
+  <si>
     <t>林祺超</t>
   </si>
   <si>
+    <t>nZWCHZ</t>
+  </si>
+  <si>
     <t>林艺精</t>
   </si>
   <si>
+    <t>8dai*q</t>
+  </si>
+  <si>
     <t>龙俊腾</t>
   </si>
   <si>
+    <t>6urrN~</t>
+  </si>
+  <si>
     <t>罗 荏</t>
   </si>
   <si>
+    <t>acqkMF</t>
+  </si>
+  <si>
     <t>莫僮深</t>
   </si>
   <si>
+    <t>nFrAOM</t>
+  </si>
+  <si>
     <t>莫耘菲</t>
   </si>
   <si>
+    <t>q^egBR</t>
+  </si>
+  <si>
     <t>任琪潼</t>
   </si>
   <si>
+    <t>i5V9%Y</t>
+  </si>
+  <si>
     <t>苏利拓</t>
   </si>
   <si>
+    <t>PMFEPo</t>
+  </si>
+  <si>
     <t>唐嘉豪</t>
   </si>
   <si>
+    <t>24LcbT</t>
+  </si>
+  <si>
     <t>唐欣妍</t>
   </si>
   <si>
+    <t>ypjYBF</t>
+  </si>
+  <si>
     <t>王国阳</t>
   </si>
   <si>
+    <t>$7gHDg</t>
+  </si>
+  <si>
     <t>王 蕾</t>
   </si>
   <si>
+    <t>94i@m5</t>
+  </si>
+  <si>
     <t>王平语</t>
   </si>
   <si>
+    <t>G9%B2v</t>
+  </si>
+  <si>
     <t>符慧琳</t>
   </si>
   <si>
+    <t>!wp5Jq</t>
+  </si>
+  <si>
     <t>吴  涵</t>
   </si>
   <si>
+    <t>Nmxaon</t>
+  </si>
+  <si>
     <t>吴挺梁</t>
   </si>
   <si>
+    <t>#nLL*u</t>
+  </si>
+  <si>
     <t>冼康一</t>
   </si>
   <si>
+    <t>x8$P*k</t>
+  </si>
+  <si>
     <t>肖 茜</t>
   </si>
   <si>
+    <t>yglRaK</t>
+  </si>
+  <si>
     <t>严教昕</t>
   </si>
   <si>
+    <t>qJHmf~</t>
+  </si>
+  <si>
     <t>杨 珊</t>
   </si>
   <si>
+    <t>@1JFhJ</t>
+  </si>
+  <si>
     <t>张  渝</t>
   </si>
   <si>
+    <t>nTP0tU</t>
+  </si>
+  <si>
     <t>周梦琳</t>
   </si>
   <si>
+    <t>PD@GpI</t>
+  </si>
+  <si>
     <t>周奕轩</t>
   </si>
   <si>
+    <t>Kgj@&amp;Z</t>
+  </si>
+  <si>
     <t>杜婉茹</t>
   </si>
   <si>
+    <t>u@GCOi</t>
+  </si>
+  <si>
     <t>方 浩</t>
+  </si>
+  <si>
+    <t>5AmNfW</t>
   </si>
 </sst>
 </file>
@@ -1020,12 +1959,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1045,10 +1984,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1059,15 +1998,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1088,48 +2052,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1151,25 +2111,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1181,26 +2134,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1218,25 +2163,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1248,7 +2217,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1266,7 +2319,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1278,97 +2331,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1380,25 +2343,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1440,39 +2385,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1490,10 +2402,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1514,6 +2424,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1529,165 +2468,171 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1697,7 +2642,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1706,56 +2651,56 @@
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规_Sheet1" xfId="2"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="3" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="4" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="5" builtinId="41"/>
-    <cellStyle name="输入" xfId="6" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="8" builtinId="38"/>
-    <cellStyle name="货币" xfId="9" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="10" builtinId="37"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
     <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="12" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="13" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="14" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="15" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="16" builtinId="44"/>
-    <cellStyle name="计算" xfId="17" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29"/>
-    <cellStyle name="适中" xfId="19" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="20" builtinId="46"/>
-    <cellStyle name="好" xfId="21" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="22" builtinId="30"/>
-    <cellStyle name="汇总" xfId="23" builtinId="25"/>
-    <cellStyle name="差" xfId="24" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="25" builtinId="23"/>
-    <cellStyle name="输出" xfId="26" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="27" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="28" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="29" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="30" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="31" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="33" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9"/>
-    <cellStyle name="标题" xfId="35" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="36" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="37" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="38" builtinId="40"/>
-    <cellStyle name="注释" xfId="39" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="40" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="42" builtinId="51"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="44" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="45" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="46" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="47" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="48" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="49" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="50" builtinId="24"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规_Sheet1" xfId="50"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2022,7 +2967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C314"/>
   <sheetViews>
@@ -2031,14 +2976,14 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="27.95" customHeight="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="10.625" customWidth="1"/>
-    <col min="3" max="3" width="17.4821428571429" customWidth="1"/>
+    <col min="3" max="3" width="17.4833333333333" customWidth="1"/>
     <col min="4" max="238" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2060,8 +3005,8 @@
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4">
-        <v>123</v>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
@@ -2069,10 +3014,10 @@
         <v>190102</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4">
-        <v>123</v>
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -2080,10 +3025,10 @@
         <v>190103</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4">
-        <v>123</v>
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -2091,10 +3036,10 @@
         <v>190104</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4">
-        <v>123</v>
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
@@ -2102,10 +3047,10 @@
         <v>190105</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4">
-        <v>123</v>
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
@@ -2113,10 +3058,10 @@
         <v>190106</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4">
-        <v>123</v>
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
@@ -2124,10 +3069,10 @@
         <v>190107</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4">
-        <v>123</v>
+        <v>15</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
@@ -2135,10 +3080,10 @@
         <v>190108</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="4">
-        <v>123</v>
+        <v>17</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
@@ -2146,10 +3091,10 @@
         <v>190109</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="4">
-        <v>123</v>
+        <v>19</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
@@ -2157,10 +3102,10 @@
         <v>190110</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="4">
-        <v>123</v>
+        <v>21</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:3">
@@ -2168,10 +3113,10 @@
         <v>190111</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="4">
-        <v>123</v>
+        <v>23</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -2179,10 +3124,10 @@
         <v>190112</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="4">
-        <v>123</v>
+        <v>25</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -2190,10 +3135,10 @@
         <v>190113</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="4">
-        <v>123</v>
+        <v>27</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -2201,10 +3146,10 @@
         <v>190114</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="4">
-        <v>123</v>
+        <v>29</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
@@ -2212,10 +3157,10 @@
         <v>190115</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="4">
-        <v>123</v>
+        <v>31</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
@@ -2223,10 +3168,10 @@
         <v>190116</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="4">
-        <v>123</v>
+        <v>33</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:3">
@@ -2234,10 +3179,10 @@
         <v>190117</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="4">
-        <v>123</v>
+        <v>35</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
@@ -2245,10 +3190,10 @@
         <v>190118</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="4">
-        <v>123</v>
+        <v>37</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:3">
@@ -2256,10 +3201,10 @@
         <v>190119</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="4">
-        <v>123</v>
+        <v>39</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
@@ -2267,10 +3212,10 @@
         <v>190120</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="4">
-        <v>123</v>
+        <v>41</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:3">
@@ -2278,10 +3223,10 @@
         <v>190121</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="4">
-        <v>123</v>
+        <v>43</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:3">
@@ -2289,10 +3234,10 @@
         <v>190122</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="4">
-        <v>123</v>
+        <v>45</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:3">
@@ -2300,10 +3245,10 @@
         <v>190123</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="4">
-        <v>123</v>
+        <v>47</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
@@ -2311,10 +3256,10 @@
         <v>190124</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="4">
-        <v>123</v>
+        <v>49</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:3">
@@ -2322,10 +3267,10 @@
         <v>190125</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="4">
-        <v>123</v>
+        <v>51</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:3">
@@ -2333,10 +3278,10 @@
         <v>190126</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="4">
-        <v>123</v>
+        <v>53</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:3">
@@ -2344,10 +3289,10 @@
         <v>190127</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="4">
-        <v>123</v>
+        <v>55</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:3">
@@ -2355,10 +3300,10 @@
         <v>190128</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="4">
-        <v>123</v>
+        <v>57</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:3">
@@ -2366,10 +3311,10 @@
         <v>190129</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="4">
-        <v>123</v>
+        <v>59</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:3">
@@ -2377,10 +3322,10 @@
         <v>190130</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="4">
-        <v>123</v>
+        <v>61</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:3">
@@ -2388,10 +3333,10 @@
         <v>190131</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="4">
-        <v>123</v>
+        <v>63</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:3">
@@ -2399,10 +3344,10 @@
         <v>190132</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="4">
-        <v>123</v>
+        <v>65</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:3">
@@ -2410,10 +3355,10 @@
         <v>190133</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="4">
-        <v>123</v>
+        <v>67</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:3">
@@ -2421,10 +3366,10 @@
         <v>190134</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="4">
-        <v>123</v>
+        <v>69</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:3">
@@ -2432,10 +3377,10 @@
         <v>190135</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="4">
-        <v>123</v>
+        <v>71</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:3">
@@ -2443,10 +3388,10 @@
         <v>190136</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="4">
-        <v>123</v>
+        <v>73</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:3">
@@ -2454,10 +3399,10 @@
         <v>190137</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="4">
-        <v>123</v>
+        <v>75</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:3">
@@ -2465,10 +3410,10 @@
         <v>190138</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="4">
-        <v>123</v>
+        <v>77</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:3">
@@ -2476,10 +3421,10 @@
         <v>190139</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="4">
-        <v>123</v>
+        <v>79</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:3">
@@ -2487,10 +3432,10 @@
         <v>190140</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="4">
-        <v>123</v>
+        <v>81</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:3">
@@ -2498,10 +3443,10 @@
         <v>190141</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="4">
-        <v>123</v>
+        <v>83</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:3">
@@ -2509,10 +3454,10 @@
         <v>190201</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="4">
-        <v>123</v>
+        <v>85</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:3">
@@ -2520,10 +3465,10 @@
         <v>190202</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="4">
-        <v>123</v>
+        <v>87</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:3">
@@ -2531,10 +3476,10 @@
         <v>190203</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="4">
-        <v>123</v>
+        <v>89</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:3">
@@ -2542,10 +3487,10 @@
         <v>190204</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="4">
-        <v>123</v>
+        <v>91</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:3">
@@ -2553,10 +3498,10 @@
         <v>190205</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" s="4">
-        <v>123</v>
+        <v>93</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:3">
@@ -2564,10 +3509,10 @@
         <v>190206</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" s="4">
-        <v>123</v>
+        <v>95</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:3">
@@ -2575,10 +3520,10 @@
         <v>190207</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" s="4">
-        <v>123</v>
+        <v>97</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:3">
@@ -2586,10 +3531,10 @@
         <v>190208</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" s="4">
-        <v>123</v>
+        <v>99</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:3">
@@ -2597,10 +3542,10 @@
         <v>190209</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C51" s="4">
-        <v>123</v>
+        <v>101</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:3">
@@ -2608,10 +3553,10 @@
         <v>190210</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C52" s="4">
-        <v>123</v>
+        <v>103</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:3">
@@ -2619,10 +3564,10 @@
         <v>190211</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C53" s="4">
-        <v>123</v>
+        <v>105</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:3">
@@ -2630,10 +3575,10 @@
         <v>190212</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="4">
-        <v>123</v>
+        <v>107</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:3">
@@ -2641,10 +3586,10 @@
         <v>190213</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C55" s="4">
-        <v>123</v>
+        <v>109</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:3">
@@ -2652,10 +3597,10 @@
         <v>190214</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C56" s="4">
-        <v>123</v>
+        <v>111</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:3">
@@ -2663,10 +3608,10 @@
         <v>190215</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C57" s="4">
-        <v>123</v>
+        <v>113</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:3">
@@ -2674,10 +3619,10 @@
         <v>190216</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58" s="4">
-        <v>123</v>
+        <v>115</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:3">
@@ -2685,10 +3630,10 @@
         <v>190217</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C59" s="4">
-        <v>123</v>
+        <v>117</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:3">
@@ -2696,10 +3641,10 @@
         <v>190218</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C60" s="4">
-        <v>123</v>
+        <v>119</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:3">
@@ -2707,10 +3652,10 @@
         <v>190219</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C61" s="4">
-        <v>123</v>
+        <v>121</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:3">
@@ -2718,10 +3663,10 @@
         <v>190220</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C62" s="4">
         <v>123</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:3">
@@ -2729,10 +3674,10 @@
         <v>190221</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C63" s="4">
-        <v>123</v>
+        <v>125</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:3">
@@ -2740,10 +3685,10 @@
         <v>190222</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C64" s="4">
-        <v>123</v>
+        <v>127</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:3">
@@ -2751,10 +3696,10 @@
         <v>190223</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C65" s="4">
-        <v>123</v>
+        <v>129</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:3">
@@ -2762,10 +3707,10 @@
         <v>190224</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C66" s="4">
-        <v>123</v>
+        <v>131</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:3">
@@ -2773,10 +3718,10 @@
         <v>190225</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C67" s="4">
-        <v>123</v>
+        <v>133</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:3">
@@ -2784,10 +3729,10 @@
         <v>190226</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C68" s="4">
-        <v>123</v>
+        <v>135</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:3">
@@ -2795,10 +3740,10 @@
         <v>190227</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C69" s="4">
-        <v>123</v>
+        <v>137</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="1:3">
@@ -2806,10 +3751,10 @@
         <v>190228</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C70" s="4">
-        <v>123</v>
+        <v>139</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:3">
@@ -2817,10 +3762,10 @@
         <v>190229</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C71" s="4">
-        <v>123</v>
+        <v>141</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="1:3">
@@ -2828,10 +3773,10 @@
         <v>190230</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C72" s="4">
-        <v>123</v>
+        <v>143</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="1:3">
@@ -2839,10 +3784,10 @@
         <v>190231</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C73" s="4">
-        <v>123</v>
+        <v>145</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:3">
@@ -2850,10 +3795,10 @@
         <v>190232</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C74" s="4">
-        <v>123</v>
+        <v>147</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:3">
@@ -2861,10 +3806,10 @@
         <v>190233</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C75" s="4">
-        <v>123</v>
+        <v>149</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:3">
@@ -2872,10 +3817,10 @@
         <v>190234</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C76" s="4">
-        <v>123</v>
+        <v>151</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:3">
@@ -2883,10 +3828,10 @@
         <v>190235</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C77" s="4">
-        <v>123</v>
+        <v>153</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="1:3">
@@ -2894,10 +3839,10 @@
         <v>190236</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C78" s="4">
-        <v>123</v>
+        <v>155</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:3">
@@ -2905,10 +3850,10 @@
         <v>190237</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C79" s="4">
-        <v>123</v>
+        <v>157</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:3">
@@ -2916,10 +3861,10 @@
         <v>190238</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C80" s="4">
-        <v>123</v>
+        <v>159</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="1:3">
@@ -2927,10 +3872,10 @@
         <v>190301</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C81" s="4">
-        <v>123</v>
+        <v>161</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="1:3">
@@ -2938,10 +3883,10 @@
         <v>190302</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C82" s="4">
-        <v>123</v>
+        <v>163</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="1:3">
@@ -2949,10 +3894,10 @@
         <v>190303</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C83" s="4">
-        <v>123</v>
+        <v>165</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:3">
@@ -2960,10 +3905,10 @@
         <v>190304</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C84" s="4">
-        <v>123</v>
+        <v>167</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="1:3">
@@ -2971,10 +3916,10 @@
         <v>190305</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C85" s="4">
-        <v>123</v>
+        <v>169</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="1:3">
@@ -2982,10 +3927,10 @@
         <v>190306</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C86" s="4">
-        <v>123</v>
+        <v>171</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="1:3">
@@ -2993,10 +3938,10 @@
         <v>190307</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C87" s="4">
-        <v>123</v>
+        <v>173</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="1:3">
@@ -3004,10 +3949,10 @@
         <v>190308</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C88" s="4">
-        <v>123</v>
+        <v>175</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="1:3">
@@ -3015,10 +3960,10 @@
         <v>190309</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C89" s="4">
-        <v>123</v>
+        <v>177</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:3">
@@ -3026,10 +3971,10 @@
         <v>190310</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C90" s="4">
-        <v>123</v>
+        <v>179</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:3">
@@ -3037,10 +3982,10 @@
         <v>190311</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C91" s="4">
-        <v>123</v>
+        <v>181</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:3">
@@ -3048,10 +3993,10 @@
         <v>190312</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C92" s="4">
-        <v>123</v>
+        <v>183</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:3">
@@ -3059,10 +4004,10 @@
         <v>190313</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C93" s="4">
-        <v>123</v>
+        <v>185</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="1:3">
@@ -3070,10 +4015,10 @@
         <v>190314</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C94" s="4">
-        <v>123</v>
+        <v>187</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="95" customHeight="1" spans="1:3">
@@ -3081,10 +4026,10 @@
         <v>190315</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C95" s="4">
-        <v>123</v>
+        <v>189</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="96" customHeight="1" spans="1:3">
@@ -3092,10 +4037,10 @@
         <v>190316</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C96" s="4">
-        <v>123</v>
+        <v>191</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="1:3">
@@ -3103,10 +4048,10 @@
         <v>190317</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C97" s="4">
-        <v>123</v>
+        <v>193</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="1:3">
@@ -3114,10 +4059,10 @@
         <v>190318</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C98" s="4">
-        <v>123</v>
+        <v>195</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="1:3">
@@ -3125,10 +4070,10 @@
         <v>190319</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C99" s="4">
-        <v>123</v>
+        <v>197</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="1:3">
@@ -3136,10 +4081,10 @@
         <v>190320</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C100" s="4">
-        <v>123</v>
+        <v>199</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="1:3">
@@ -3147,10 +4092,10 @@
         <v>190321</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C101" s="4">
-        <v>123</v>
+        <v>201</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="1:3">
@@ -3158,10 +4103,10 @@
         <v>190322</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C102" s="4">
-        <v>123</v>
+        <v>203</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="1:3">
@@ -3169,10 +4114,10 @@
         <v>190323</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C103" s="4">
-        <v>123</v>
+        <v>205</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="104" customHeight="1" spans="1:3">
@@ -3180,10 +4125,10 @@
         <v>190324</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C104" s="4">
-        <v>123</v>
+        <v>207</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="105" customHeight="1" spans="1:3">
@@ -3191,10 +4136,10 @@
         <v>190325</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C105" s="4">
-        <v>123</v>
+        <v>209</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="106" customHeight="1" spans="1:3">
@@ -3202,10 +4147,10 @@
         <v>190326</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C106" s="4">
-        <v>123</v>
+        <v>211</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="107" customHeight="1" spans="1:3">
@@ -3213,10 +4158,10 @@
         <v>190327</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C107" s="4">
-        <v>123</v>
+        <v>213</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="108" customHeight="1" spans="1:3">
@@ -3224,10 +4169,10 @@
         <v>190328</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C108" s="4">
-        <v>123</v>
+        <v>215</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="109" customHeight="1" spans="1:3">
@@ -3235,10 +4180,10 @@
         <v>190329</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C109" s="4">
-        <v>123</v>
+        <v>217</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="110" customHeight="1" spans="1:3">
@@ -3246,10 +4191,10 @@
         <v>190330</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C110" s="4">
-        <v>123</v>
+        <v>219</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="111" customHeight="1" spans="1:3">
@@ -3257,10 +4202,10 @@
         <v>190331</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C111" s="4">
-        <v>123</v>
+        <v>221</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="112" customHeight="1" spans="1:3">
@@ -3268,10 +4213,10 @@
         <v>190332</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C112" s="4">
-        <v>123</v>
+        <v>223</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="113" customHeight="1" spans="1:3">
@@ -3279,10 +4224,10 @@
         <v>190333</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C113" s="4">
-        <v>123</v>
+        <v>225</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="114" customHeight="1" spans="1:3">
@@ -3290,10 +4235,10 @@
         <v>190334</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C114" s="4">
-        <v>123</v>
+        <v>227</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="115" customHeight="1" spans="1:3">
@@ -3301,10 +4246,10 @@
         <v>190335</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C115" s="4">
-        <v>123</v>
+        <v>229</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="116" customHeight="1" spans="1:3">
@@ -3312,10 +4257,10 @@
         <v>190336</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C116" s="4">
-        <v>123</v>
+        <v>231</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="117" customHeight="1" spans="1:3">
@@ -3323,10 +4268,10 @@
         <v>190337</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C117" s="4">
-        <v>123</v>
+        <v>233</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="1:3">
@@ -3334,10 +4279,10 @@
         <v>190401</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C118" s="4">
-        <v>123</v>
+        <v>235</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="119" customHeight="1" spans="1:3">
@@ -3345,10 +4290,10 @@
         <v>190402</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C119" s="4">
-        <v>123</v>
+        <v>237</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="120" customHeight="1" spans="1:3">
@@ -3356,10 +4301,10 @@
         <v>190403</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C120" s="4">
-        <v>123</v>
+        <v>239</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="121" customHeight="1" spans="1:3">
@@ -3367,10 +4312,10 @@
         <v>190404</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C121" s="4">
-        <v>123</v>
+        <v>241</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="122" customHeight="1" spans="1:3">
@@ -3378,10 +4323,10 @@
         <v>190405</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C122" s="4">
-        <v>123</v>
+        <v>243</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="123" customHeight="1" spans="1:3">
@@ -3389,10 +4334,10 @@
         <v>190406</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C123" s="4">
-        <v>123</v>
+        <v>245</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="124" customHeight="1" spans="1:3">
@@ -3400,10 +4345,10 @@
         <v>190407</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C124" s="4">
-        <v>123</v>
+        <v>247</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="125" customHeight="1" spans="1:3">
@@ -3411,10 +4356,10 @@
         <v>190408</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C125" s="4">
-        <v>123</v>
+        <v>249</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="126" customHeight="1" spans="1:3">
@@ -3422,10 +4367,10 @@
         <v>190409</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C126" s="4">
-        <v>123</v>
+        <v>251</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="127" customHeight="1" spans="1:3">
@@ -3433,10 +4378,10 @@
         <v>190410</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C127" s="4">
-        <v>123</v>
+        <v>253</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="128" customHeight="1" spans="1:3">
@@ -3444,10 +4389,10 @@
         <v>190411</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C128" s="4">
-        <v>123</v>
+        <v>255</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="129" customHeight="1" spans="1:3">
@@ -3455,10 +4400,10 @@
         <v>190412</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C129" s="4">
-        <v>123</v>
+        <v>257</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="130" customHeight="1" spans="1:3">
@@ -3466,10 +4411,10 @@
         <v>190413</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C130" s="4">
-        <v>123</v>
+        <v>259</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="131" customHeight="1" spans="1:3">
@@ -3477,10 +4422,10 @@
         <v>190414</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C131" s="4">
-        <v>123</v>
+        <v>261</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="132" customHeight="1" spans="1:3">
@@ -3488,10 +4433,10 @@
         <v>190415</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C132" s="4">
-        <v>123</v>
+        <v>263</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="133" customHeight="1" spans="1:3">
@@ -3499,10 +4444,10 @@
         <v>190416</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C133" s="4">
-        <v>123</v>
+        <v>265</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="134" customHeight="1" spans="1:3">
@@ -3510,10 +4455,10 @@
         <v>190417</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C134" s="4">
-        <v>123</v>
+        <v>267</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="135" customHeight="1" spans="1:3">
@@ -3521,10 +4466,10 @@
         <v>190418</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C135" s="4">
-        <v>123</v>
+        <v>269</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="136" customHeight="1" spans="1:3">
@@ -3532,10 +4477,10 @@
         <v>190419</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C136" s="4">
-        <v>123</v>
+        <v>271</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="137" customHeight="1" spans="1:3">
@@ -3543,10 +4488,10 @@
         <v>190420</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C137" s="4">
-        <v>123</v>
+        <v>273</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="138" customHeight="1" spans="1:3">
@@ -3554,10 +4499,10 @@
         <v>190421</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C138" s="4">
-        <v>123</v>
+        <v>275</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="139" customHeight="1" spans="1:3">
@@ -3565,10 +4510,10 @@
         <v>190422</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C139" s="4">
-        <v>123</v>
+        <v>277</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="140" customHeight="1" spans="1:3">
@@ -3576,10 +4521,10 @@
         <v>190423</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C140" s="4">
-        <v>123</v>
+        <v>279</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="141" customHeight="1" spans="1:3">
@@ -3587,10 +4532,10 @@
         <v>190424</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C141" s="4">
-        <v>123</v>
+        <v>281</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="142" customHeight="1" spans="1:3">
@@ -3598,10 +4543,10 @@
         <v>190425</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C142" s="4">
-        <v>123</v>
+        <v>283</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="143" customHeight="1" spans="1:3">
@@ -3609,10 +4554,10 @@
         <v>190426</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C143" s="4">
-        <v>123</v>
+        <v>285</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="144" customHeight="1" spans="1:3">
@@ -3620,10 +4565,10 @@
         <v>190427</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C144" s="4">
-        <v>123</v>
+        <v>287</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="145" customHeight="1" spans="1:3">
@@ -3631,10 +4576,10 @@
         <v>190428</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C145" s="4">
-        <v>123</v>
+        <v>289</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="146" customHeight="1" spans="1:3">
@@ -3642,10 +4587,10 @@
         <v>190429</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C146" s="4">
-        <v>123</v>
+        <v>291</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="147" customHeight="1" spans="1:3">
@@ -3653,10 +4598,10 @@
         <v>190430</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C147" s="4">
-        <v>123</v>
+        <v>293</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="148" customHeight="1" spans="1:3">
@@ -3664,10 +4609,10 @@
         <v>190431</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C148" s="4">
-        <v>123</v>
+        <v>295</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="149" customHeight="1" spans="1:3">
@@ -3675,10 +4620,10 @@
         <v>190432</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C149" s="4">
-        <v>123</v>
+        <v>297</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="150" customHeight="1" spans="1:3">
@@ -3686,10 +4631,10 @@
         <v>190433</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C150" s="4">
-        <v>123</v>
+        <v>299</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="151" customHeight="1" spans="1:3">
@@ -3697,10 +4642,10 @@
         <v>190434</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C151" s="4">
-        <v>123</v>
+        <v>301</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="152" customHeight="1" spans="1:3">
@@ -3708,10 +4653,10 @@
         <v>190435</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C152" s="4">
-        <v>123</v>
+        <v>303</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="153" customHeight="1" spans="1:3">
@@ -3719,10 +4664,10 @@
         <v>190436</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C153" s="4">
-        <v>123</v>
+        <v>305</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="154" customHeight="1" spans="1:3">
@@ -3730,10 +4675,10 @@
         <v>190437</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C154" s="4">
-        <v>123</v>
+        <v>307</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="155" customHeight="1" spans="1:3">
@@ -3741,10 +4686,10 @@
         <v>190438</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C155" s="4">
-        <v>123</v>
+        <v>309</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="156" customHeight="1" spans="1:3">
@@ -3752,10 +4697,10 @@
         <v>190439</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C156" s="4">
-        <v>123</v>
+        <v>311</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="157" customHeight="1" spans="1:3">
@@ -3763,10 +4708,10 @@
         <v>190440</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C157" s="4">
-        <v>123</v>
+        <v>313</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="158" customHeight="1" spans="1:3">
@@ -3774,10 +4719,10 @@
         <v>190501</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C158" s="4">
-        <v>123</v>
+        <v>315</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="159" customHeight="1" spans="1:3">
@@ -3785,10 +4730,10 @@
         <v>190502</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C159" s="4">
-        <v>123</v>
+        <v>317</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="160" customHeight="1" spans="1:3">
@@ -3796,10 +4741,10 @@
         <v>190503</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C160" s="4">
-        <v>123</v>
+        <v>319</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="161" customHeight="1" spans="1:3">
@@ -3807,10 +4752,10 @@
         <v>190504</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C161" s="4">
-        <v>123</v>
+        <v>321</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="162" customHeight="1" spans="1:3">
@@ -3818,10 +4763,10 @@
         <v>190505</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C162" s="4">
-        <v>123</v>
+        <v>323</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="163" customHeight="1" spans="1:3">
@@ -3829,10 +4774,10 @@
         <v>190506</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C163" s="4">
-        <v>123</v>
+        <v>325</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="164" customHeight="1" spans="1:3">
@@ -3840,10 +4785,10 @@
         <v>190507</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C164" s="4">
-        <v>123</v>
+        <v>327</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="165" customHeight="1" spans="1:3">
@@ -3851,10 +4796,10 @@
         <v>190508</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C165" s="4">
-        <v>123</v>
+        <v>329</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="166" customHeight="1" spans="1:3">
@@ -3862,10 +4807,10 @@
         <v>190509</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C166" s="4">
-        <v>123</v>
+        <v>331</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="167" customHeight="1" spans="1:3">
@@ -3873,10 +4818,10 @@
         <v>190510</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C167" s="4">
-        <v>123</v>
+        <v>333</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="168" customHeight="1" spans="1:3">
@@ -3884,10 +4829,10 @@
         <v>190511</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C168" s="4">
-        <v>123</v>
+        <v>335</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="169" customHeight="1" spans="1:3">
@@ -3895,10 +4840,10 @@
         <v>190512</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C169" s="4">
-        <v>123</v>
+        <v>337</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="170" customHeight="1" spans="1:3">
@@ -3906,10 +4851,10 @@
         <v>190513</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C170" s="4">
-        <v>123</v>
+        <v>339</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="171" customHeight="1" spans="1:3">
@@ -3917,10 +4862,10 @@
         <v>190514</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C171" s="4">
-        <v>123</v>
+        <v>341</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="172" customHeight="1" spans="1:3">
@@ -3928,10 +4873,10 @@
         <v>190515</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C172" s="4">
-        <v>123</v>
+        <v>343</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="173" customHeight="1" spans="1:3">
@@ -3939,10 +4884,10 @@
         <v>190516</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C173" s="4">
-        <v>123</v>
+        <v>345</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="174" customHeight="1" spans="1:3">
@@ -3950,10 +4895,10 @@
         <v>190517</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C174" s="4">
-        <v>123</v>
+        <v>347</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="175" customHeight="1" spans="1:3">
@@ -3961,10 +4906,10 @@
         <v>190518</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C175" s="4">
-        <v>123</v>
+        <v>349</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="176" customHeight="1" spans="1:3">
@@ -3972,10 +4917,10 @@
         <v>190519</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C176" s="4">
-        <v>123</v>
+        <v>351</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="177" customHeight="1" spans="1:3">
@@ -3983,10 +4928,10 @@
         <v>190520</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C177" s="4">
-        <v>123</v>
+        <v>353</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="178" customHeight="1" spans="1:3">
@@ -3994,10 +4939,10 @@
         <v>190521</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C178" s="4">
-        <v>123</v>
+        <v>355</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="179" customHeight="1" spans="1:3">
@@ -4005,10 +4950,10 @@
         <v>190522</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C179" s="4">
-        <v>123</v>
+        <v>357</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="180" customHeight="1" spans="1:3">
@@ -4016,10 +4961,10 @@
         <v>190523</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C180" s="4">
-        <v>123</v>
+        <v>359</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="181" customHeight="1" spans="1:3">
@@ -4027,10 +4972,10 @@
         <v>190524</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C181" s="4">
-        <v>123</v>
+        <v>361</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="182" customHeight="1" spans="1:3">
@@ -4038,10 +4983,10 @@
         <v>190525</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C182" s="4">
-        <v>123</v>
+        <v>363</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="183" customHeight="1" spans="1:3">
@@ -4049,10 +4994,10 @@
         <v>190526</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C183" s="4">
-        <v>123</v>
+        <v>365</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="184" customHeight="1" spans="1:3">
@@ -4060,10 +5005,10 @@
         <v>190527</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C184" s="4">
-        <v>123</v>
+        <v>367</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="185" customHeight="1" spans="1:3">
@@ -4071,10 +5016,10 @@
         <v>190528</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C185" s="4">
-        <v>123</v>
+        <v>369</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="186" customHeight="1" spans="1:3">
@@ -4082,10 +5027,10 @@
         <v>190529</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C186" s="4">
-        <v>123</v>
+        <v>371</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="187" customHeight="1" spans="1:3">
@@ -4093,10 +5038,10 @@
         <v>190530</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C187" s="4">
-        <v>123</v>
+        <v>373</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="188" customHeight="1" spans="1:3">
@@ -4104,10 +5049,10 @@
         <v>190531</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C188" s="4">
-        <v>123</v>
+        <v>375</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="189" customHeight="1" spans="1:3">
@@ -4115,10 +5060,10 @@
         <v>190532</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C189" s="4">
-        <v>123</v>
+        <v>377</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="190" customHeight="1" spans="1:3">
@@ -4126,10 +5071,10 @@
         <v>190533</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C190" s="4">
-        <v>123</v>
+        <v>379</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="191" customHeight="1" spans="1:3">
@@ -4137,10 +5082,10 @@
         <v>190534</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C191" s="4">
-        <v>123</v>
+        <v>381</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="192" customHeight="1" spans="1:3">
@@ -4148,10 +5093,10 @@
         <v>190535</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C192" s="4">
-        <v>123</v>
+        <v>383</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="193" customHeight="1" spans="1:3">
@@ -4159,10 +5104,10 @@
         <v>190536</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C193" s="4">
-        <v>123</v>
+        <v>385</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="194" customHeight="1" spans="1:3">
@@ -4170,10 +5115,10 @@
         <v>190537</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C194" s="4">
-        <v>123</v>
+        <v>387</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="195" customHeight="1" spans="1:3">
@@ -4181,10 +5126,10 @@
         <v>190538</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C195" s="4">
-        <v>123</v>
+        <v>389</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="196" customHeight="1" spans="1:3">
@@ -4192,10 +5137,10 @@
         <v>190539</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C196" s="4">
-        <v>123</v>
+        <v>391</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="197" customHeight="1" spans="1:3">
@@ -4203,10 +5148,10 @@
         <v>190601</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C197" s="4">
-        <v>123</v>
+        <v>393</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="198" customHeight="1" spans="1:3">
@@ -4214,10 +5159,10 @@
         <v>190602</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C198" s="4">
-        <v>123</v>
+        <v>395</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="199" customHeight="1" spans="1:3">
@@ -4225,10 +5170,10 @@
         <v>190603</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C199" s="4">
-        <v>123</v>
+        <v>397</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="200" customHeight="1" spans="1:3">
@@ -4236,10 +5181,10 @@
         <v>190604</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C200" s="4">
-        <v>123</v>
+        <v>399</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="201" customHeight="1" spans="1:3">
@@ -4247,10 +5192,10 @@
         <v>190605</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C201" s="4">
-        <v>123</v>
+        <v>401</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="202" customHeight="1" spans="1:3">
@@ -4258,10 +5203,10 @@
         <v>190606</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C202" s="4">
-        <v>123</v>
+        <v>403</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="203" customHeight="1" spans="1:3">
@@ -4269,10 +5214,10 @@
         <v>190607</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C203" s="4">
-        <v>123</v>
+        <v>405</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="204" customHeight="1" spans="1:3">
@@ -4280,10 +5225,10 @@
         <v>190608</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C204" s="4">
-        <v>123</v>
+        <v>407</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="205" customHeight="1" spans="1:3">
@@ -4291,10 +5236,10 @@
         <v>190609</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C205" s="4">
-        <v>123</v>
+        <v>409</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="206" customHeight="1" spans="1:3">
@@ -4302,10 +5247,10 @@
         <v>190610</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C206" s="4">
-        <v>123</v>
+        <v>411</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="207" customHeight="1" spans="1:3">
@@ -4313,10 +5258,10 @@
         <v>190611</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C207" s="4">
-        <v>123</v>
+        <v>413</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="208" customHeight="1" spans="1:3">
@@ -4324,10 +5269,10 @@
         <v>190612</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C208" s="4">
-        <v>123</v>
+        <v>415</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="209" customHeight="1" spans="1:3">
@@ -4335,10 +5280,10 @@
         <v>190613</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C209" s="4">
-        <v>123</v>
+        <v>417</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="210" customHeight="1" spans="1:3">
@@ -4346,10 +5291,10 @@
         <v>190614</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C210" s="4">
-        <v>123</v>
+        <v>419</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="211" customHeight="1" spans="1:3">
@@ -4357,10 +5302,10 @@
         <v>190615</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C211" s="4">
-        <v>123</v>
+        <v>421</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="212" customHeight="1" spans="1:3">
@@ -4368,10 +5313,10 @@
         <v>190616</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C212" s="4">
-        <v>123</v>
+        <v>423</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="213" customHeight="1" spans="1:3">
@@ -4379,10 +5324,10 @@
         <v>190617</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C213" s="4">
-        <v>123</v>
+        <v>425</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="214" customHeight="1" spans="1:3">
@@ -4390,10 +5335,10 @@
         <v>190618</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C214" s="4">
-        <v>123</v>
+        <v>427</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="215" customHeight="1" spans="1:3">
@@ -4401,10 +5346,10 @@
         <v>190619</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C215" s="4">
-        <v>123</v>
+        <v>429</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="216" customHeight="1" spans="1:3">
@@ -4412,10 +5357,10 @@
         <v>190620</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C216" s="4">
-        <v>123</v>
+        <v>431</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="217" customHeight="1" spans="1:3">
@@ -4423,10 +5368,10 @@
         <v>190621</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C217" s="4">
-        <v>123</v>
+        <v>433</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="218" customHeight="1" spans="1:3">
@@ -4434,10 +5379,10 @@
         <v>190622</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C218" s="4">
-        <v>123</v>
+        <v>435</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="219" customHeight="1" spans="1:3">
@@ -4445,10 +5390,10 @@
         <v>190623</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C219" s="4">
-        <v>123</v>
+        <v>437</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="220" customHeight="1" spans="1:3">
@@ -4456,10 +5401,10 @@
         <v>190624</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C220" s="4">
-        <v>123</v>
+        <v>439</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="221" customHeight="1" spans="1:3">
@@ -4467,10 +5412,10 @@
         <v>190625</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C221" s="4">
-        <v>123</v>
+        <v>441</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="222" customHeight="1" spans="1:3">
@@ -4478,10 +5423,10 @@
         <v>190626</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C222" s="4">
-        <v>123</v>
+        <v>443</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="223" customHeight="1" spans="1:3">
@@ -4489,10 +5434,10 @@
         <v>190627</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C223" s="4">
-        <v>123</v>
+        <v>445</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="224" customHeight="1" spans="1:3">
@@ -4500,10 +5445,10 @@
         <v>190628</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C224" s="4">
-        <v>123</v>
+        <v>447</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="225" customHeight="1" spans="1:3">
@@ -4511,10 +5456,10 @@
         <v>190629</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C225" s="4">
-        <v>123</v>
+        <v>449</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="226" customHeight="1" spans="1:3">
@@ -4522,10 +5467,10 @@
         <v>190630</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C226" s="4">
-        <v>123</v>
+        <v>451</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="227" customHeight="1" spans="1:3">
@@ -4533,10 +5478,10 @@
         <v>190631</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C227" s="4">
-        <v>123</v>
+        <v>453</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="228" customHeight="1" spans="1:3">
@@ -4544,10 +5489,10 @@
         <v>190632</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C228" s="4">
-        <v>123</v>
+        <v>455</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="229" customHeight="1" spans="1:3">
@@ -4555,10 +5500,10 @@
         <v>190633</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C229" s="4">
-        <v>123</v>
+        <v>457</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="230" customHeight="1" spans="1:3">
@@ -4566,10 +5511,10 @@
         <v>190634</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C230" s="4">
-        <v>123</v>
+        <v>459</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="231" customHeight="1" spans="1:3">
@@ -4577,10 +5522,10 @@
         <v>190635</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C231" s="4">
-        <v>123</v>
+        <v>461</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="232" customHeight="1" spans="1:3">
@@ -4588,10 +5533,10 @@
         <v>190636</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C232" s="4">
-        <v>123</v>
+        <v>463</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="233" customHeight="1" spans="1:3">
@@ -4599,10 +5544,10 @@
         <v>190637</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C233" s="4">
-        <v>123</v>
+        <v>465</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="234" customHeight="1" spans="1:3">
@@ -4610,10 +5555,10 @@
         <v>190638</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C234" s="4">
-        <v>123</v>
+        <v>467</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="235" customHeight="1" spans="1:3">
@@ -4621,10 +5566,10 @@
         <v>190639</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C235" s="4">
-        <v>123</v>
+        <v>469</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="236" customHeight="1" spans="1:3">
@@ -4632,10 +5577,10 @@
         <v>190640</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C236" s="4">
-        <v>123</v>
+        <v>471</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="237" customHeight="1" spans="1:3">
@@ -4643,10 +5588,10 @@
         <v>190641</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C237" s="4">
-        <v>123</v>
+        <v>473</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="238" customHeight="1" spans="1:3">
@@ -4654,10 +5599,10 @@
         <v>190701</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C238" s="4">
-        <v>123</v>
+        <v>475</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="239" customHeight="1" spans="1:3">
@@ -4665,10 +5610,10 @@
         <v>190702</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C239" s="4">
-        <v>123</v>
+        <v>477</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="240" customHeight="1" spans="1:3">
@@ -4676,10 +5621,10 @@
         <v>190703</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C240" s="4">
-        <v>123</v>
+        <v>479</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="241" customHeight="1" spans="1:3">
@@ -4687,10 +5632,10 @@
         <v>190704</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C241" s="4">
-        <v>123</v>
+        <v>481</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="242" customHeight="1" spans="1:3">
@@ -4698,10 +5643,10 @@
         <v>190705</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C242" s="4">
-        <v>123</v>
+        <v>483</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="243" customHeight="1" spans="1:3">
@@ -4709,10 +5654,10 @@
         <v>190706</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C243" s="4">
-        <v>123</v>
+        <v>485</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="244" customHeight="1" spans="1:3">
@@ -4720,10 +5665,10 @@
         <v>190707</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C244" s="4">
-        <v>123</v>
+        <v>487</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="245" customHeight="1" spans="1:3">
@@ -4731,10 +5676,10 @@
         <v>190708</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C245" s="4">
-        <v>123</v>
+        <v>489</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="246" customHeight="1" spans="1:3">
@@ -4742,10 +5687,10 @@
         <v>190709</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C246" s="4">
-        <v>123</v>
+        <v>491</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="247" customHeight="1" spans="1:3">
@@ -4753,10 +5698,10 @@
         <v>190710</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C247" s="4">
-        <v>123</v>
+        <v>493</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="248" customHeight="1" spans="1:3">
@@ -4764,10 +5709,10 @@
         <v>190711</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C248" s="4">
-        <v>123</v>
+        <v>495</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="249" customHeight="1" spans="1:3">
@@ -4775,10 +5720,10 @@
         <v>190712</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C249" s="4">
-        <v>123</v>
+        <v>497</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="250" customHeight="1" spans="1:3">
@@ -4786,10 +5731,10 @@
         <v>190713</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C250" s="4">
-        <v>123</v>
+        <v>499</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="251" customHeight="1" spans="1:3">
@@ -4797,10 +5742,10 @@
         <v>190714</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C251" s="4">
-        <v>123</v>
+        <v>501</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="252" customHeight="1" spans="1:3">
@@ -4808,10 +5753,10 @@
         <v>190715</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C252" s="4">
-        <v>123</v>
+        <v>503</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="253" customHeight="1" spans="1:3">
@@ -4819,10 +5764,10 @@
         <v>190716</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C253" s="4">
-        <v>123</v>
+        <v>505</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="254" customHeight="1" spans="1:3">
@@ -4830,10 +5775,10 @@
         <v>190717</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C254" s="4">
-        <v>123</v>
+        <v>507</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="255" customHeight="1" spans="1:3">
@@ -4841,10 +5786,10 @@
         <v>190718</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C255" s="4">
-        <v>123</v>
+        <v>509</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="256" customHeight="1" spans="1:3">
@@ -4852,10 +5797,10 @@
         <v>190719</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C256" s="4">
-        <v>123</v>
+        <v>511</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="257" customHeight="1" spans="1:3">
@@ -4863,10 +5808,10 @@
         <v>190720</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C257" s="4">
-        <v>123</v>
+        <v>513</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="258" customHeight="1" spans="1:3">
@@ -4874,10 +5819,10 @@
         <v>190721</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C258" s="4">
-        <v>123</v>
+        <v>515</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="259" customHeight="1" spans="1:3">
@@ -4885,10 +5830,10 @@
         <v>190722</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="C259" s="4">
-        <v>123</v>
+        <v>517</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="260" customHeight="1" spans="1:3">
@@ -4896,10 +5841,10 @@
         <v>190723</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C260" s="4">
-        <v>123</v>
+        <v>519</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="261" customHeight="1" spans="1:3">
@@ -4907,10 +5852,10 @@
         <v>190724</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C261" s="4">
-        <v>123</v>
+        <v>521</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="262" customHeight="1" spans="1:3">
@@ -4918,10 +5863,10 @@
         <v>190725</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C262" s="4">
-        <v>123</v>
+        <v>523</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="263" customHeight="1" spans="1:3">
@@ -4929,10 +5874,10 @@
         <v>190726</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="C263" s="4">
-        <v>123</v>
+        <v>525</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="264" customHeight="1" spans="1:3">
@@ -4940,10 +5885,10 @@
         <v>190727</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C264" s="4">
-        <v>123</v>
+        <v>527</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="265" customHeight="1" spans="1:3">
@@ -4951,10 +5896,10 @@
         <v>190728</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="C265" s="4">
-        <v>123</v>
+        <v>529</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="266" customHeight="1" spans="1:3">
@@ -4962,10 +5907,10 @@
         <v>190729</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C266" s="4">
-        <v>123</v>
+        <v>531</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="267" customHeight="1" spans="1:3">
@@ -4973,10 +5918,10 @@
         <v>190730</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C267" s="4">
-        <v>123</v>
+        <v>533</v>
+      </c>
+      <c r="C267" s="4" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="268" customHeight="1" spans="1:3">
@@ -4984,10 +5929,10 @@
         <v>190731</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C268" s="4">
-        <v>123</v>
+        <v>535</v>
+      </c>
+      <c r="C268" s="4" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="269" customHeight="1" spans="1:3">
@@ -4995,10 +5940,10 @@
         <v>190732</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="C269" s="4">
-        <v>123</v>
+        <v>537</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="270" customHeight="1" spans="1:3">
@@ -5006,10 +5951,10 @@
         <v>190733</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C270" s="4">
-        <v>123</v>
+        <v>539</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="271" customHeight="1" spans="1:3">
@@ -5017,10 +5962,10 @@
         <v>190734</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="C271" s="4">
-        <v>123</v>
+        <v>541</v>
+      </c>
+      <c r="C271" s="4" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="272" customHeight="1" spans="1:3">
@@ -5028,10 +5973,10 @@
         <v>190735</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C272" s="4">
-        <v>123</v>
+        <v>543</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="273" customHeight="1" spans="1:3">
@@ -5039,10 +5984,10 @@
         <v>190736</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="C273" s="4">
-        <v>123</v>
+        <v>545</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="274" customHeight="1" spans="1:3">
@@ -5050,10 +5995,10 @@
         <v>190737</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="C274" s="4">
-        <v>123</v>
+        <v>547</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="275" customHeight="1" spans="1:3">
@@ -5061,10 +6006,10 @@
         <v>190738</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C275" s="4">
-        <v>123</v>
+        <v>549</v>
+      </c>
+      <c r="C275" s="4" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="276" customHeight="1" spans="1:3">
@@ -5072,10 +6017,10 @@
         <v>190801</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C276" s="4">
-        <v>123</v>
+        <v>551</v>
+      </c>
+      <c r="C276" s="4" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="277" customHeight="1" spans="1:3">
@@ -5083,10 +6028,10 @@
         <v>190802</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C277" s="4">
-        <v>123</v>
+        <v>553</v>
+      </c>
+      <c r="C277" s="4" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="278" customHeight="1" spans="1:3">
@@ -5094,10 +6039,10 @@
         <v>190803</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="C278" s="4">
-        <v>123</v>
+        <v>555</v>
+      </c>
+      <c r="C278" s="4" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="279" customHeight="1" spans="1:3">
@@ -5105,10 +6050,10 @@
         <v>190804</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="C279" s="4">
-        <v>123</v>
+        <v>557</v>
+      </c>
+      <c r="C279" s="4" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="280" customHeight="1" spans="1:3">
@@ -5116,10 +6061,10 @@
         <v>190805</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C280" s="4">
-        <v>123</v>
+        <v>559</v>
+      </c>
+      <c r="C280" s="4" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="281" customHeight="1" spans="1:3">
@@ -5127,10 +6072,10 @@
         <v>190806</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C281" s="4">
-        <v>123</v>
+        <v>561</v>
+      </c>
+      <c r="C281" s="4" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="282" customHeight="1" spans="1:3">
@@ -5138,10 +6083,10 @@
         <v>190807</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C282" s="4">
-        <v>123</v>
+        <v>563</v>
+      </c>
+      <c r="C282" s="4" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="283" customHeight="1" spans="1:3">
@@ -5149,10 +6094,10 @@
         <v>190808</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="C283" s="4">
-        <v>123</v>
+        <v>565</v>
+      </c>
+      <c r="C283" s="4" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="284" customHeight="1" spans="1:3">
@@ -5160,10 +6105,10 @@
         <v>190809</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C284" s="4">
-        <v>123</v>
+        <v>567</v>
+      </c>
+      <c r="C284" s="4" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="285" customHeight="1" spans="1:3">
@@ -5171,10 +6116,10 @@
         <v>190810</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="C285" s="4">
-        <v>123</v>
+        <v>569</v>
+      </c>
+      <c r="C285" s="4" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="286" customHeight="1" spans="1:3">
@@ -5182,10 +6127,10 @@
         <v>190811</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C286" s="4">
-        <v>123</v>
+        <v>571</v>
+      </c>
+      <c r="C286" s="4" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="287" customHeight="1" spans="1:3">
@@ -5193,10 +6138,10 @@
         <v>190812</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C287" s="4">
-        <v>123</v>
+        <v>573</v>
+      </c>
+      <c r="C287" s="4" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="288" customHeight="1" spans="1:3">
@@ -5204,10 +6149,10 @@
         <v>190813</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C288" s="4">
-        <v>123</v>
+        <v>575</v>
+      </c>
+      <c r="C288" s="4" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="289" customHeight="1" spans="1:3">
@@ -5215,10 +6160,10 @@
         <v>190814</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C289" s="4">
-        <v>123</v>
+        <v>577</v>
+      </c>
+      <c r="C289" s="4" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="290" customHeight="1" spans="1:3">
@@ -5226,10 +6171,10 @@
         <v>190815</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C290" s="4">
-        <v>123</v>
+        <v>579</v>
+      </c>
+      <c r="C290" s="4" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="291" customHeight="1" spans="1:3">
@@ -5237,10 +6182,10 @@
         <v>190816</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C291" s="4">
-        <v>123</v>
+        <v>581</v>
+      </c>
+      <c r="C291" s="4" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="292" customHeight="1" spans="1:3">
@@ -5248,10 +6193,10 @@
         <v>190817</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="C292" s="4">
-        <v>123</v>
+        <v>583</v>
+      </c>
+      <c r="C292" s="4" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="293" customHeight="1" spans="1:3">
@@ -5259,10 +6204,10 @@
         <v>190818</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C293" s="4">
-        <v>123</v>
+        <v>585</v>
+      </c>
+      <c r="C293" s="4" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="294" customHeight="1" spans="1:3">
@@ -5270,10 +6215,10 @@
         <v>190819</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C294" s="4">
-        <v>123</v>
+        <v>587</v>
+      </c>
+      <c r="C294" s="4" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="295" customHeight="1" spans="1:3">
@@ -5281,10 +6226,10 @@
         <v>190820</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C295" s="4">
-        <v>123</v>
+        <v>589</v>
+      </c>
+      <c r="C295" s="4" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="296" customHeight="1" spans="1:3">
@@ -5292,10 +6237,10 @@
         <v>190821</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C296" s="4">
-        <v>123</v>
+        <v>591</v>
+      </c>
+      <c r="C296" s="4" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="297" customHeight="1" spans="1:3">
@@ -5303,10 +6248,10 @@
         <v>190822</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C297" s="4">
-        <v>123</v>
+        <v>593</v>
+      </c>
+      <c r="C297" s="4" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="298" customHeight="1" spans="1:3">
@@ -5314,10 +6259,10 @@
         <v>190823</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C298" s="4">
-        <v>123</v>
+        <v>595</v>
+      </c>
+      <c r="C298" s="4" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="299" customHeight="1" spans="1:3">
@@ -5325,10 +6270,10 @@
         <v>190824</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C299" s="4">
-        <v>123</v>
+        <v>597</v>
+      </c>
+      <c r="C299" s="4" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="300" customHeight="1" spans="1:3">
@@ -5336,10 +6281,10 @@
         <v>190825</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="C300" s="4">
-        <v>123</v>
+        <v>599</v>
+      </c>
+      <c r="C300" s="4" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="301" customHeight="1" spans="1:3">
@@ -5347,10 +6292,10 @@
         <v>190826</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C301" s="4">
-        <v>123</v>
+        <v>601</v>
+      </c>
+      <c r="C301" s="4" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="302" customHeight="1" spans="1:3">
@@ -5358,10 +6303,10 @@
         <v>190827</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C302" s="4">
-        <v>123</v>
+        <v>603</v>
+      </c>
+      <c r="C302" s="4" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="303" customHeight="1" spans="1:3">
@@ -5369,10 +6314,10 @@
         <v>190828</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="C303" s="4">
-        <v>123</v>
+        <v>605</v>
+      </c>
+      <c r="C303" s="4" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="304" customHeight="1" spans="1:3">
@@ -5380,10 +6325,10 @@
         <v>190829</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="C304" s="4">
-        <v>123</v>
+        <v>607</v>
+      </c>
+      <c r="C304" s="4" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="305" customHeight="1" spans="1:3">
@@ -5391,10 +6336,10 @@
         <v>190830</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C305" s="4">
-        <v>123</v>
+        <v>609</v>
+      </c>
+      <c r="C305" s="4" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="306" customHeight="1" spans="1:3">
@@ -5402,10 +6347,10 @@
         <v>190831</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="C306" s="4">
-        <v>123</v>
+        <v>611</v>
+      </c>
+      <c r="C306" s="4" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="307" customHeight="1" spans="1:3">
@@ -5413,10 +6358,10 @@
         <v>190832</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C307" s="4">
-        <v>123</v>
+        <v>613</v>
+      </c>
+      <c r="C307" s="4" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="308" customHeight="1" spans="1:3">
@@ -5424,10 +6369,10 @@
         <v>190833</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C308" s="4">
-        <v>123</v>
+        <v>615</v>
+      </c>
+      <c r="C308" s="4" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="309" customHeight="1" spans="1:3">
@@ -5435,10 +6380,10 @@
         <v>190834</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C309" s="4">
-        <v>123</v>
+        <v>617</v>
+      </c>
+      <c r="C309" s="4" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="310" customHeight="1" spans="1:3">
@@ -5446,10 +6391,10 @@
         <v>190835</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C310" s="4">
-        <v>123</v>
+        <v>619</v>
+      </c>
+      <c r="C310" s="4" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="311" customHeight="1" spans="1:3">
@@ -5457,10 +6402,10 @@
         <v>190836</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C311" s="4">
-        <v>123</v>
+        <v>621</v>
+      </c>
+      <c r="C311" s="4" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="312" customHeight="1" spans="1:3">
@@ -5468,10 +6413,10 @@
         <v>190837</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="C312" s="4">
-        <v>123</v>
+        <v>623</v>
+      </c>
+      <c r="C312" s="4" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="313" customHeight="1" spans="1:3">
@@ -5479,10 +6424,10 @@
         <v>190838</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="C313" s="4">
-        <v>123</v>
+        <v>625</v>
+      </c>
+      <c r="C313" s="4" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="314" customHeight="1" spans="1:3">
@@ -5490,10 +6435,10 @@
         <v>190839</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="C314" s="4">
-        <v>123</v>
+        <v>627</v>
+      </c>
+      <c r="C314" s="4" t="s">
+        <v>628</v>
       </c>
     </row>
   </sheetData>

--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -28,181 +28,181 @@
     <t>鲍奕坤</t>
   </si>
   <si>
-    <t>*%1i~a</t>
+    <t>837099</t>
   </si>
   <si>
     <t>陈锦宇</t>
   </si>
   <si>
-    <t>BKm9~A</t>
+    <t>748833</t>
   </si>
   <si>
     <t>陈显凡</t>
   </si>
   <si>
-    <t>A&amp;Lh!V</t>
+    <t>506655</t>
   </si>
   <si>
     <t>陈宥玮</t>
   </si>
   <si>
-    <t>l%Hlu8</t>
+    <t>595792</t>
   </si>
   <si>
     <t>陈梓泓</t>
   </si>
   <si>
-    <t>oK~ORo</t>
+    <t>554985</t>
   </si>
   <si>
     <t>戴家乐</t>
   </si>
   <si>
-    <t>6@RL28</t>
+    <t>172836</t>
   </si>
   <si>
     <t>符谷基</t>
   </si>
   <si>
-    <t>xqwWTE</t>
+    <t>725784</t>
   </si>
   <si>
     <t>符曼妮</t>
   </si>
   <si>
-    <t>vA~Vxr</t>
+    <t>965037</t>
   </si>
   <si>
     <t>郭天阳</t>
   </si>
   <si>
-    <t>UGJfav</t>
+    <t>331399</t>
   </si>
   <si>
     <t>候玺伦</t>
   </si>
   <si>
-    <t>k52nNq</t>
+    <t>499093</t>
   </si>
   <si>
     <t>胡其巧</t>
   </si>
   <si>
-    <t>t47LY0</t>
+    <t>619565</t>
   </si>
   <si>
     <t>黄堂卫</t>
   </si>
   <si>
-    <t>8SLtB%</t>
+    <t>180437</t>
   </si>
   <si>
     <t>黄雨萱</t>
   </si>
   <si>
-    <t>8vPrZM</t>
+    <t>955836</t>
   </si>
   <si>
     <t>李奥博</t>
   </si>
   <si>
-    <t>&amp;#aPFD</t>
+    <t>531047</t>
   </si>
   <si>
     <t>李婉祯</t>
   </si>
   <si>
-    <t>scxXBK</t>
+    <t>410991</t>
   </si>
   <si>
     <t>李先国</t>
   </si>
   <si>
-    <t>YofVmT</t>
+    <t>562111</t>
   </si>
   <si>
     <t>梁健新</t>
   </si>
   <si>
-    <t>vuomHJ</t>
+    <t>132872</t>
   </si>
   <si>
     <t>林思妤</t>
   </si>
   <si>
-    <t>h9!aAq</t>
+    <t>005255</t>
   </si>
   <si>
     <t>罗俊豪</t>
   </si>
   <si>
-    <t>PtYAN3</t>
+    <t>250909</t>
   </si>
   <si>
     <t>骆怡静</t>
   </si>
   <si>
-    <t>fE3~ho</t>
+    <t>670948</t>
   </si>
   <si>
     <t>莫如璇</t>
   </si>
   <si>
-    <t>B25KpG</t>
+    <t>971448</t>
   </si>
   <si>
     <t>莫耀翔</t>
   </si>
   <si>
-    <t>zEpwwW</t>
+    <t>207240</t>
   </si>
   <si>
     <t>彭安欣</t>
   </si>
   <si>
-    <t>1Iz~&amp;B</t>
+    <t>889239</t>
   </si>
   <si>
     <t>苏运锴</t>
   </si>
   <si>
-    <t>p8E%nD</t>
+    <t>734459</t>
   </si>
   <si>
     <t>唐静轩</t>
   </si>
   <si>
-    <t>OCg$mJ</t>
+    <t>844366</t>
   </si>
   <si>
     <t>唐蔚良</t>
   </si>
   <si>
-    <t>dGumc&amp;</t>
+    <t>059720</t>
   </si>
   <si>
     <t>王海清</t>
   </si>
   <si>
-    <t>y0Fd#L</t>
+    <t>488100</t>
   </si>
   <si>
     <t>王一琳</t>
   </si>
   <si>
-    <t>LXueQX</t>
+    <t>058484</t>
   </si>
   <si>
     <t>吴槟楠</t>
   </si>
   <si>
-    <t>qkvbwL</t>
+    <t>977841</t>
   </si>
   <si>
     <t>吴洁怡</t>
   </si>
   <si>
-    <t>!650sb</t>
+    <t>477221</t>
   </si>
   <si>
     <r>
@@ -225,19 +225,19 @@
     </r>
   </si>
   <si>
-    <t>q9@!s3</t>
+    <t>486318</t>
   </si>
   <si>
     <t>肖佳佳</t>
   </si>
   <si>
-    <t>NUx28*</t>
+    <t>190064</t>
   </si>
   <si>
     <t>邢增益</t>
   </si>
   <si>
-    <t>Y^IfmC</t>
+    <t>920970</t>
   </si>
   <si>
     <r>
@@ -260,19 +260,19 @@
     </r>
   </si>
   <si>
-    <t>f9Gc!X</t>
+    <t>330451</t>
   </si>
   <si>
     <t>杨康瑞</t>
   </si>
   <si>
-    <t>agjykI</t>
+    <t>803152</t>
   </si>
   <si>
     <t>叶长泓</t>
   </si>
   <si>
-    <t>&amp;YGUpb</t>
+    <t>647949</t>
   </si>
   <si>
     <r>
@@ -295,1663 +295,1663 @@
     </r>
   </si>
   <si>
-    <t>bY7$%B</t>
+    <t>517990</t>
   </si>
   <si>
     <t>张满钰</t>
   </si>
   <si>
-    <t>C!B!Tx</t>
+    <t>019862</t>
   </si>
   <si>
     <t>张宇茂</t>
   </si>
   <si>
-    <t>9yQtcV</t>
+    <t>184702</t>
   </si>
   <si>
     <t>钟远宜</t>
   </si>
   <si>
-    <t>qgnbNV</t>
+    <t>491847</t>
   </si>
   <si>
     <t>周召栋</t>
   </si>
   <si>
-    <t>jJUHTX</t>
+    <t>223367</t>
   </si>
   <si>
     <t>闭永康</t>
   </si>
   <si>
-    <t>E%ULmv</t>
+    <t>848847</t>
   </si>
   <si>
     <t>曾彦凯</t>
   </si>
   <si>
-    <t>&amp;sOk~T</t>
+    <t>619835</t>
   </si>
   <si>
     <t>陈佳敏</t>
   </si>
   <si>
-    <t>6O68@a</t>
+    <t>897663</t>
   </si>
   <si>
     <t>陈相君</t>
   </si>
   <si>
-    <t>nAM@1M</t>
+    <t>552776</t>
   </si>
   <si>
     <t>陈霄亮</t>
   </si>
   <si>
-    <t>TN18UU</t>
+    <t>849963</t>
   </si>
   <si>
     <t>陈雨汐</t>
   </si>
   <si>
-    <t>0a5q89</t>
+    <t>509843</t>
   </si>
   <si>
     <t>陈昀邑</t>
   </si>
   <si>
-    <t>%tO*FH</t>
+    <t>758339</t>
   </si>
   <si>
     <t>邓成辉</t>
   </si>
   <si>
-    <t>InZC2N</t>
+    <t>532796</t>
   </si>
   <si>
     <t>符鸿涛</t>
   </si>
   <si>
-    <t>&amp;2FjY6</t>
+    <t>256449</t>
   </si>
   <si>
     <t>关婷婷</t>
   </si>
   <si>
-    <t>!NkNz$</t>
+    <t>714988</t>
   </si>
   <si>
     <t>郭彦宏</t>
   </si>
   <si>
-    <t>7ynVxL</t>
+    <t>115936</t>
   </si>
   <si>
     <t>韩喜畴</t>
   </si>
   <si>
-    <t>U#A8$N</t>
+    <t>871765</t>
   </si>
   <si>
     <t>韩永晶</t>
   </si>
   <si>
-    <t>r9oIgU</t>
+    <t>501752</t>
   </si>
   <si>
     <t>黄榆敏</t>
   </si>
   <si>
-    <t>ULuBVB</t>
+    <t>630610</t>
   </si>
   <si>
     <t>黄梓皓</t>
   </si>
   <si>
-    <t>d#Loca</t>
+    <t>030406</t>
   </si>
   <si>
     <t>吉彦伯</t>
   </si>
   <si>
-    <t>H5HxF5</t>
+    <t>913482</t>
   </si>
   <si>
     <t>林静宇</t>
   </si>
   <si>
-    <t>@D4oJ7</t>
+    <t>813873</t>
   </si>
   <si>
     <t>林先宇</t>
   </si>
   <si>
-    <t>Z!C8eg</t>
+    <t>319752</t>
   </si>
   <si>
     <t>罗丽萍</t>
   </si>
   <si>
-    <t>jRBGGE</t>
+    <t>964984</t>
   </si>
   <si>
     <t>孟琬清</t>
   </si>
   <si>
-    <t>gWE9RD</t>
+    <t>398335</t>
   </si>
   <si>
     <t>欧阳润</t>
   </si>
   <si>
-    <t>8mHNHU</t>
+    <t>972074</t>
   </si>
   <si>
     <t>庞雯文</t>
   </si>
   <si>
-    <t>yppQkk</t>
+    <t>280580</t>
   </si>
   <si>
     <t>孙天福</t>
   </si>
   <si>
-    <t>UsDsSw</t>
+    <t>038514</t>
   </si>
   <si>
     <t>唐  轩</t>
   </si>
   <si>
-    <t>W8kj~K</t>
+    <t>214808</t>
   </si>
   <si>
     <t>唐一夫</t>
   </si>
   <si>
-    <t>kZGiNt</t>
+    <t>046080</t>
   </si>
   <si>
     <t>王佳仪</t>
   </si>
   <si>
-    <t>3ywFKj</t>
+    <t>560540</t>
   </si>
   <si>
     <t>王旭</t>
   </si>
   <si>
-    <t>h!WrP5</t>
+    <t>706292</t>
   </si>
   <si>
     <t>王阳钰</t>
   </si>
   <si>
-    <t>MsJ&amp;7H</t>
+    <t>059218</t>
   </si>
   <si>
     <t>王瑜钊</t>
   </si>
   <si>
-    <t>3ixGBh</t>
+    <t>614081</t>
   </si>
   <si>
     <t>吴多沅</t>
   </si>
   <si>
-    <t>DV62IP</t>
+    <t>402628</t>
   </si>
   <si>
     <t>吴宇森</t>
   </si>
   <si>
-    <t>n&amp;p7LL</t>
+    <t>736027</t>
   </si>
   <si>
     <t>肖  淋</t>
   </si>
   <si>
-    <t>5qMYNh</t>
+    <t>650288</t>
   </si>
   <si>
     <t>谢海裕</t>
   </si>
   <si>
-    <t>%f%~11</t>
+    <t>679714</t>
   </si>
   <si>
     <t>徐小仪</t>
   </si>
   <si>
-    <t>5$VaqC</t>
+    <t>189573</t>
   </si>
   <si>
     <t>杨钦翰</t>
   </si>
   <si>
-    <t>OT2ltv</t>
+    <t>663775</t>
   </si>
   <si>
     <t>叶子豪</t>
   </si>
   <si>
-    <t>yeQ$tz</t>
+    <t>075664</t>
   </si>
   <si>
     <t>云  涓</t>
   </si>
   <si>
-    <t>ZkeRIL</t>
+    <t>634606</t>
   </si>
   <si>
     <t>张子恒</t>
   </si>
   <si>
-    <t>POIuR6</t>
+    <t>043384</t>
   </si>
   <si>
     <t>衡眉</t>
   </si>
   <si>
-    <t>L&amp;*ttK</t>
+    <t>755584</t>
   </si>
   <si>
     <t>梁佳恒</t>
   </si>
   <si>
-    <t>C3kCnp</t>
+    <t>977517</t>
   </si>
   <si>
     <t>杨敏燕</t>
   </si>
   <si>
-    <t>zB@w@k</t>
+    <t>979779</t>
   </si>
   <si>
     <t>谭雨欣</t>
   </si>
   <si>
-    <t>tw%Y%%</t>
+    <t>118015</t>
   </si>
   <si>
     <t>杨锦鸿</t>
   </si>
   <si>
-    <t>KCAWc$</t>
+    <t>713141</t>
   </si>
   <si>
     <t>杨泽伦</t>
   </si>
   <si>
-    <t>6Nr4PM</t>
+    <t>024346</t>
   </si>
   <si>
     <t>王皓麟</t>
   </si>
   <si>
-    <t>if$X1E</t>
+    <t>593332</t>
   </si>
   <si>
     <t>李邦凯</t>
   </si>
   <si>
-    <t>ZR&amp;bc4</t>
+    <t>195968</t>
   </si>
   <si>
     <t>孙菁</t>
   </si>
   <si>
-    <t>1xXd7$</t>
+    <t>601191</t>
   </si>
   <si>
     <t>吴子旭</t>
   </si>
   <si>
-    <t>wXALuB</t>
+    <t>888347</t>
   </si>
   <si>
     <t>解禹泽</t>
   </si>
   <si>
-    <t>tBhRu6</t>
+    <t>361566</t>
   </si>
   <si>
     <t>洪睿</t>
   </si>
   <si>
-    <t>#5KI$s</t>
+    <t>079653</t>
   </si>
   <si>
     <t>程池</t>
   </si>
   <si>
-    <t>9ZIrPo</t>
+    <t>087354</t>
   </si>
   <si>
     <t>李想</t>
   </si>
   <si>
-    <t>FNVF%U</t>
+    <t>584505</t>
   </si>
   <si>
     <t>洪阳</t>
   </si>
   <si>
-    <t>3a21Kr</t>
+    <t>895228</t>
   </si>
   <si>
     <t>黄思语</t>
   </si>
   <si>
-    <t>9iDpdW</t>
+    <t>206621</t>
   </si>
   <si>
     <t>庄国策</t>
   </si>
   <si>
-    <t>uittp5</t>
+    <t>728988</t>
   </si>
   <si>
     <t>罗娴</t>
   </si>
   <si>
-    <t>hZ7aOH</t>
+    <t>935281</t>
   </si>
   <si>
     <t>孙笠镤</t>
   </si>
   <si>
-    <t>QTwLsn</t>
+    <t>548142</t>
   </si>
   <si>
     <t>朱敏敏</t>
   </si>
   <si>
-    <t>v*NuZ7</t>
+    <t>010826</t>
   </si>
   <si>
     <t>王舒艺</t>
   </si>
   <si>
-    <t>b3igGy</t>
+    <t>611834</t>
   </si>
   <si>
     <t>肖旻雯</t>
   </si>
   <si>
-    <t>ykRhtH</t>
+    <t>293946</t>
   </si>
   <si>
     <t>孔维一</t>
   </si>
   <si>
-    <t>dA0Jys</t>
+    <t>167774</t>
   </si>
   <si>
     <t>季皖渝</t>
   </si>
   <si>
-    <t>%tFS#M</t>
+    <t>094969</t>
   </si>
   <si>
     <t>段泓成</t>
   </si>
   <si>
-    <t>%GCUk&amp;</t>
+    <t>189088</t>
   </si>
   <si>
     <t>秦意刚</t>
   </si>
   <si>
-    <t>6ZOtMq</t>
+    <t>899229</t>
   </si>
   <si>
     <t>杨竣淏</t>
   </si>
   <si>
-    <t>Lw8Q$$</t>
+    <t>974414</t>
   </si>
   <si>
     <t>林倩如</t>
   </si>
   <si>
-    <t>xjqkWa</t>
+    <t>146418</t>
   </si>
   <si>
     <t>杨仁洁</t>
   </si>
   <si>
-    <t>!zjncT</t>
+    <t>859425</t>
   </si>
   <si>
     <t>祝亚桐</t>
   </si>
   <si>
-    <t>q%^AGx</t>
+    <t>562971</t>
   </si>
   <si>
     <t>曾佳琳</t>
   </si>
   <si>
-    <t>QOzfOZ</t>
+    <t>198032</t>
   </si>
   <si>
     <t>张艺潇</t>
   </si>
   <si>
-    <t>BF4m3U</t>
+    <t>261405</t>
   </si>
   <si>
     <t>金浩然</t>
   </si>
   <si>
-    <t>^pqV6i</t>
+    <t>907995</t>
   </si>
   <si>
     <t>陈俊桦</t>
   </si>
   <si>
-    <t>@e4iMD</t>
+    <t>218878</t>
   </si>
   <si>
     <t>程作宇</t>
   </si>
   <si>
-    <t>wSvyTp</t>
+    <t>805086</t>
   </si>
   <si>
     <t>李海山</t>
   </si>
   <si>
-    <t>iaCEd3</t>
+    <t>881896</t>
   </si>
   <si>
     <t>许可健</t>
   </si>
   <si>
-    <t>J$jqnH</t>
+    <t>231930</t>
   </si>
   <si>
     <t>蔡  友</t>
   </si>
   <si>
-    <t>05h8ru</t>
+    <t>253362</t>
   </si>
   <si>
     <t>陈  婕</t>
   </si>
   <si>
-    <t>S7sBgu</t>
+    <t>231834</t>
   </si>
   <si>
     <t>陈崇裕</t>
   </si>
   <si>
-    <t>i2JNnD</t>
+    <t>441587</t>
   </si>
   <si>
     <t>陈俊儒</t>
   </si>
   <si>
-    <t>7Vdn*A</t>
+    <t>136895</t>
   </si>
   <si>
     <t>陈烊壮</t>
   </si>
   <si>
-    <t>!mB&amp;cQ</t>
+    <t>875441</t>
   </si>
   <si>
     <t>陈依仪</t>
   </si>
   <si>
-    <t>V3jp#P</t>
+    <t>261022</t>
   </si>
   <si>
     <t>陈在海</t>
   </si>
   <si>
-    <t>fXuJkM</t>
+    <t>174483</t>
   </si>
   <si>
     <t>董晟祺</t>
   </si>
   <si>
-    <t>yZ#M9y</t>
+    <t>792727</t>
   </si>
   <si>
     <t>符志海</t>
   </si>
   <si>
-    <t>zRrc*#</t>
+    <t>481033</t>
   </si>
   <si>
     <t>何彬彬</t>
   </si>
   <si>
-    <t>gDszvO</t>
+    <t>464306</t>
   </si>
   <si>
     <t>黄  宸</t>
   </si>
   <si>
-    <t>VN$ced</t>
+    <t>204101</t>
   </si>
   <si>
     <t>黄心怡</t>
   </si>
   <si>
-    <t>TP*ObQ</t>
+    <t>033008</t>
   </si>
   <si>
     <t>吉家琛</t>
   </si>
   <si>
-    <t>IfWER~</t>
+    <t>130081</t>
   </si>
   <si>
     <t>李  琳</t>
   </si>
   <si>
-    <t>nTymOT</t>
+    <t>759923</t>
   </si>
   <si>
     <t>李传华</t>
   </si>
   <si>
-    <t>bjH*G8</t>
+    <t>083066</t>
   </si>
   <si>
     <t>梁其洲</t>
   </si>
   <si>
-    <t>7604Bl</t>
+    <t>579322</t>
   </si>
   <si>
     <t>梁钰偲</t>
   </si>
   <si>
-    <t>*uVxTR</t>
+    <t>689017</t>
   </si>
   <si>
     <t>陆玫伶</t>
   </si>
   <si>
-    <t>3ONj3Z</t>
+    <t>525498</t>
   </si>
   <si>
     <t>吕书丞</t>
   </si>
   <si>
-    <t>yF7IF9</t>
+    <t>927571</t>
   </si>
   <si>
     <t>蒙王妃</t>
   </si>
   <si>
-    <t>fjT05t</t>
+    <t>388067</t>
   </si>
   <si>
     <t>潘朵拉</t>
   </si>
   <si>
-    <t>YBT4l6</t>
+    <t>443255</t>
   </si>
   <si>
     <t>潘家宽</t>
   </si>
   <si>
-    <t>m##drV</t>
+    <t>642300</t>
   </si>
   <si>
     <t>覃飞钰</t>
   </si>
   <si>
-    <t>Aoqura</t>
+    <t>660622</t>
   </si>
   <si>
     <t>谭  翘</t>
   </si>
   <si>
-    <t>I!yhj1</t>
+    <t>844848</t>
   </si>
   <si>
     <t>唐英议</t>
   </si>
   <si>
-    <t>aNKHpX</t>
+    <t>715921</t>
   </si>
   <si>
     <t>王邦谊</t>
   </si>
   <si>
-    <t>nq@sLu</t>
+    <t>174389</t>
   </si>
   <si>
     <t>王金鲍</t>
   </si>
   <si>
-    <t>PNAicy</t>
+    <t>074391</t>
   </si>
   <si>
     <t>王振浩</t>
   </si>
   <si>
-    <t>Dvf&amp;4B</t>
+    <t>778180</t>
   </si>
   <si>
     <t>翁小珺</t>
   </si>
   <si>
-    <t>uq%t88</t>
+    <t>032443</t>
   </si>
   <si>
     <t>刘心岚</t>
   </si>
   <si>
-    <t>695e#e</t>
+    <t>135161</t>
   </si>
   <si>
     <t>吴毓瑞</t>
   </si>
   <si>
-    <t>RdbfhT</t>
+    <t>735323</t>
   </si>
   <si>
     <t>徐静怡</t>
   </si>
   <si>
-    <t>h4JhVu</t>
+    <t>118353</t>
   </si>
   <si>
     <t>余湘湘</t>
   </si>
   <si>
-    <t>8Imj!b</t>
+    <t>909060</t>
   </si>
   <si>
     <t>喻至嵘</t>
   </si>
   <si>
-    <t>$kwHff</t>
+    <t>889867</t>
   </si>
   <si>
     <t>郑  隆</t>
   </si>
   <si>
-    <t>7i2ohb</t>
+    <t>476764</t>
   </si>
   <si>
     <t>郑晴璐</t>
   </si>
   <si>
-    <t>BKGEB0</t>
+    <t>212265</t>
   </si>
   <si>
     <t>郑天禧</t>
   </si>
   <si>
-    <t>mdTbZq</t>
+    <t>632432</t>
   </si>
   <si>
     <t>祝  康</t>
   </si>
   <si>
-    <t>8IEx#J</t>
+    <t>913281</t>
   </si>
   <si>
     <t>韩伟杰</t>
   </si>
   <si>
-    <t>gcpl9Q</t>
+    <t>101928</t>
   </si>
   <si>
     <t>廖  鹏</t>
   </si>
   <si>
-    <t>Kqh%Dy</t>
+    <t>263509</t>
   </si>
   <si>
     <t>蔡劲鸿</t>
   </si>
   <si>
-    <t>fb547f</t>
+    <t>094407</t>
   </si>
   <si>
     <t>陈嘉</t>
   </si>
   <si>
-    <t>Bc%Gqa</t>
+    <t>111641</t>
   </si>
   <si>
     <t>陈大纬</t>
   </si>
   <si>
-    <t>q6rn&amp;d</t>
+    <t>049615</t>
   </si>
   <si>
     <t>陈尚余</t>
   </si>
   <si>
-    <t>gaHVUV</t>
+    <t>855562</t>
   </si>
   <si>
     <t>陈一赫</t>
   </si>
   <si>
-    <t>uj1Kp3</t>
+    <t>182663</t>
   </si>
   <si>
     <t>陈泽斐</t>
   </si>
   <si>
-    <t>$@csFI</t>
+    <t>466618</t>
   </si>
   <si>
     <t>方育</t>
   </si>
   <si>
-    <t>fl9L&amp;l</t>
+    <t>469538</t>
   </si>
   <si>
     <t>符宝蓉</t>
   </si>
   <si>
-    <t>KJCk4k</t>
+    <t>847334</t>
   </si>
   <si>
     <t>傅佑杰</t>
   </si>
   <si>
-    <t>*k32eT</t>
+    <t>986178</t>
   </si>
   <si>
     <t>何浩宾</t>
   </si>
   <si>
-    <t>LQHfmC</t>
+    <t>729826</t>
   </si>
   <si>
     <t>黄崇铭</t>
   </si>
   <si>
-    <t>~AQptJ</t>
+    <t>678134</t>
   </si>
   <si>
     <t>黄晓曦</t>
   </si>
   <si>
-    <t>SozOVn</t>
+    <t>280054</t>
   </si>
   <si>
     <t>简德弦</t>
   </si>
   <si>
-    <t>YmDGw0</t>
+    <t>722979</t>
   </si>
   <si>
     <t>李斯家</t>
   </si>
   <si>
-    <t>n5KUzl</t>
+    <t>227853</t>
   </si>
   <si>
     <t>梁迅</t>
   </si>
   <si>
-    <t>*VsM4c</t>
+    <t>959583</t>
   </si>
   <si>
     <t>梁振华</t>
   </si>
   <si>
-    <t>7m2$*0</t>
+    <t>019878</t>
   </si>
   <si>
     <t>林展鹏</t>
   </si>
   <si>
-    <t>*4~2V$</t>
+    <t>345398</t>
   </si>
   <si>
     <t>柳晓颖</t>
   </si>
   <si>
-    <t>lRU!uw</t>
+    <t>188414</t>
   </si>
   <si>
     <t>马钰</t>
   </si>
   <si>
-    <t>7NSJy8</t>
+    <t>704796</t>
   </si>
   <si>
     <t>蒙钟程</t>
   </si>
   <si>
-    <t>BkUOsu</t>
+    <t>612919</t>
   </si>
   <si>
     <t>欧一喧</t>
   </si>
   <si>
-    <t>tqF^Gs</t>
+    <t>655748</t>
   </si>
   <si>
     <t>彭嘉诚</t>
   </si>
   <si>
-    <t>ngHeaz</t>
+    <t>667815</t>
   </si>
   <si>
     <t>王敏</t>
   </si>
   <si>
-    <t>y1Fu#O</t>
+    <t>266610</t>
   </si>
   <si>
     <t>王邦颉</t>
   </si>
   <si>
-    <t>MhN4Gk</t>
+    <t>823955</t>
   </si>
   <si>
     <t>王彤</t>
   </si>
   <si>
-    <t>M*XHsi</t>
+    <t>273394</t>
   </si>
   <si>
     <t>王子文</t>
   </si>
   <si>
-    <t>@!35kS</t>
+    <t>747630</t>
   </si>
   <si>
     <t>翁慧琳</t>
   </si>
   <si>
-    <t>BTfPa0</t>
+    <t>385774</t>
   </si>
   <si>
     <t>吴俊樘</t>
   </si>
   <si>
-    <t>b^Vev^</t>
+    <t>355050</t>
   </si>
   <si>
     <t>夏铭源</t>
   </si>
   <si>
-    <t>ESe1hf</t>
+    <t>222132</t>
   </si>
   <si>
     <t>邢钰佳</t>
   </si>
   <si>
-    <t>bA7kha</t>
+    <t>262594</t>
   </si>
   <si>
     <t>徐川洲</t>
   </si>
   <si>
-    <t>i96lRq</t>
+    <t>656784</t>
   </si>
   <si>
     <t>杨洋</t>
   </si>
   <si>
-    <t>$pHyYq</t>
+    <t>705265</t>
   </si>
   <si>
     <t>张程</t>
   </si>
   <si>
-    <t>dojpdY</t>
+    <t>172793</t>
   </si>
   <si>
     <t>郑敦程</t>
   </si>
   <si>
-    <t>HXI2RI</t>
+    <t>979282</t>
   </si>
   <si>
     <t>郑君浩</t>
   </si>
   <si>
-    <t>t8gcyK</t>
+    <t>418218</t>
   </si>
   <si>
     <t>郑宇新</t>
   </si>
   <si>
-    <t>X4c#py</t>
+    <t>933402</t>
   </si>
   <si>
     <t>庄国德</t>
   </si>
   <si>
-    <t>e7U9Op</t>
+    <t>584376</t>
   </si>
   <si>
     <t>谢嘉诚</t>
   </si>
   <si>
-    <t>JGtNcm</t>
+    <t>415885</t>
   </si>
   <si>
     <t>吴淑伦</t>
   </si>
   <si>
-    <t>R*XrPO</t>
+    <t>919128</t>
   </si>
   <si>
     <t>曾垂奋</t>
   </si>
   <si>
-    <t>86NNAL</t>
+    <t>278950</t>
   </si>
   <si>
     <t>陈泓宇</t>
   </si>
   <si>
-    <t>D79SgK</t>
+    <t>953132</t>
   </si>
   <si>
     <t>陈世杰</t>
   </si>
   <si>
-    <t>9dmnFS</t>
+    <t>800681</t>
   </si>
   <si>
     <t>陈宣谷</t>
   </si>
   <si>
-    <t>4co~tD</t>
+    <t>340739</t>
   </si>
   <si>
     <t>陈颖宇</t>
   </si>
   <si>
-    <t>6Eq!dy</t>
+    <t>002524</t>
   </si>
   <si>
     <t>陈志函</t>
   </si>
   <si>
-    <t>p7H%1T</t>
+    <t>431567</t>
   </si>
   <si>
     <t>冯慧璇</t>
   </si>
   <si>
-    <t>yvIgnV</t>
+    <t>741988</t>
   </si>
   <si>
     <t>冯学鸿</t>
   </si>
   <si>
-    <t>VbrfhZ</t>
+    <t>298807</t>
   </si>
   <si>
     <t>葛净彤</t>
   </si>
   <si>
-    <t>DwJ^~U</t>
+    <t>581495</t>
   </si>
   <si>
     <t>何声言</t>
   </si>
   <si>
-    <t>^miUt$</t>
+    <t>624167</t>
   </si>
   <si>
     <t>黄宏壮</t>
   </si>
   <si>
-    <t>sx@FFe</t>
+    <t>057866</t>
   </si>
   <si>
     <t>黄诗涵</t>
   </si>
   <si>
-    <t>OoVf*S</t>
+    <t>596661</t>
   </si>
   <si>
     <t>李涛</t>
   </si>
   <si>
-    <t>CI*WHm</t>
+    <t>192732</t>
   </si>
   <si>
     <t>李志铿</t>
   </si>
   <si>
-    <t>9jdQZX</t>
+    <t>552766</t>
   </si>
   <si>
     <t>连婧羽</t>
   </si>
   <si>
-    <t>uwm$BW</t>
+    <t>015345</t>
   </si>
   <si>
     <t>林炽</t>
   </si>
   <si>
-    <t>m@L8!X</t>
+    <t>797590</t>
   </si>
   <si>
     <t>刘顺涛</t>
   </si>
   <si>
-    <t>tf4MtP</t>
+    <t>362404</t>
   </si>
   <si>
     <t>刘欣洁</t>
   </si>
   <si>
-    <t>rFzeVC</t>
+    <t>741773</t>
   </si>
   <si>
     <t>莫晋</t>
   </si>
   <si>
-    <t>xT3EKm</t>
+    <t>575859</t>
   </si>
   <si>
     <t>聂  淼</t>
   </si>
   <si>
-    <t>53RdLh</t>
+    <t>207431</t>
   </si>
   <si>
     <t>史贵伟</t>
   </si>
   <si>
-    <t>msEHI5</t>
+    <t>465352</t>
   </si>
   <si>
     <t>宋晓芬</t>
   </si>
   <si>
-    <t>R3$Uvr</t>
+    <t>155430</t>
   </si>
   <si>
     <t>唐  浩</t>
   </si>
   <si>
-    <t>qMUbtB</t>
+    <t>595645</t>
   </si>
   <si>
     <t>涂文馨</t>
   </si>
   <si>
-    <t>vD%L0#</t>
+    <t>669603</t>
   </si>
   <si>
     <t>王丁乐</t>
   </si>
   <si>
-    <t>rlQ4IZ</t>
+    <t>981897</t>
   </si>
   <si>
     <t>王梓钰</t>
   </si>
   <si>
-    <t>98IWwL</t>
+    <t>327821</t>
   </si>
   <si>
     <t>王梓凝</t>
   </si>
   <si>
-    <t>@@c4ni</t>
+    <t>027032</t>
   </si>
   <si>
     <t>温紫翠</t>
   </si>
   <si>
-    <t>uPJCls</t>
+    <t>088377</t>
   </si>
   <si>
     <t>吴英玲</t>
   </si>
   <si>
-    <t>z6!&amp;5y</t>
+    <t>320394</t>
   </si>
   <si>
     <t>吴其鸿</t>
   </si>
   <si>
-    <t>qJNjK3</t>
+    <t>986466</t>
   </si>
   <si>
     <t>徐锴智</t>
   </si>
   <si>
-    <t>e9m4dZ</t>
+    <t>750421</t>
   </si>
   <si>
     <t>杨夏瑜</t>
   </si>
   <si>
-    <t>NEDCYi</t>
+    <t>536025</t>
   </si>
   <si>
     <t>杨祖源</t>
   </si>
   <si>
-    <t>kLPb3j</t>
+    <t>064412</t>
   </si>
   <si>
     <t>张家瑋</t>
   </si>
   <si>
-    <t>x^rGUB</t>
+    <t>595582</t>
   </si>
   <si>
     <t>张铁凌</t>
   </si>
   <si>
-    <t>*IEeHW</t>
+    <t>744533</t>
   </si>
   <si>
     <t>郑涵</t>
   </si>
   <si>
-    <t>iPP!lS</t>
+    <t>650361</t>
   </si>
   <si>
     <t>周国豪</t>
   </si>
   <si>
-    <t>%#T!VF</t>
+    <t>644680</t>
   </si>
   <si>
     <t>庄铭浩</t>
   </si>
   <si>
-    <t>#TekBa</t>
+    <t>125901</t>
   </si>
   <si>
     <t>左雨穗</t>
   </si>
   <si>
-    <t>Kv2JHb</t>
+    <t>482402</t>
   </si>
   <si>
     <t>何昌泰</t>
   </si>
   <si>
-    <t>^SP4wp</t>
+    <t>140409</t>
   </si>
   <si>
     <t>王思尹</t>
   </si>
   <si>
-    <t>c&amp;cziq</t>
+    <t>265204</t>
   </si>
   <si>
     <t>王茹</t>
   </si>
   <si>
-    <t>JEQL9K</t>
+    <t>980356</t>
   </si>
   <si>
     <t>黄今畅</t>
   </si>
   <si>
-    <t>q8pGH&amp;</t>
+    <t>613491</t>
   </si>
   <si>
     <t>史运炜</t>
   </si>
   <si>
-    <t>Ffmm$w</t>
+    <t>268833</t>
   </si>
   <si>
     <t>唐欣怡</t>
   </si>
   <si>
-    <t>cSN8DL</t>
+    <t>532825</t>
   </si>
   <si>
     <t>高忠俊</t>
   </si>
   <si>
-    <t>TFZ4t^</t>
+    <t>515623</t>
   </si>
   <si>
     <t>雷宝墨</t>
   </si>
   <si>
-    <t>yV8d3x</t>
+    <t>269297</t>
   </si>
   <si>
     <t>郑建辉</t>
   </si>
   <si>
-    <t>eGH5!O</t>
+    <t>084500</t>
   </si>
   <si>
     <t>陈智远</t>
   </si>
   <si>
-    <t>fsmQqG</t>
+    <t>327725</t>
   </si>
   <si>
     <t>王霖</t>
   </si>
   <si>
-    <t>qQD@st</t>
+    <t>487196</t>
   </si>
   <si>
     <t>陈思好</t>
   </si>
   <si>
-    <t>taDDcO</t>
+    <t>408851</t>
   </si>
   <si>
     <t>梁超文</t>
   </si>
   <si>
-    <t>#YX*H0</t>
+    <t>937548</t>
   </si>
   <si>
     <t>何宇承</t>
   </si>
   <si>
-    <t>USXSJx</t>
+    <t>871795</t>
   </si>
   <si>
     <t>薛智耀</t>
   </si>
   <si>
-    <t>KLYTiz</t>
+    <t>365998</t>
   </si>
   <si>
     <t>佘家宜</t>
   </si>
   <si>
-    <t>#Q8h~V</t>
+    <t>564375</t>
   </si>
   <si>
     <t>王定宇</t>
   </si>
   <si>
-    <t>0nDGdc</t>
+    <t>665850</t>
   </si>
   <si>
     <t>符芳源</t>
   </si>
   <si>
-    <t>tNhnm^</t>
+    <t>780805</t>
   </si>
   <si>
     <t>方雪蓉</t>
   </si>
   <si>
-    <t>B8vNaJ</t>
+    <t>999217</t>
   </si>
   <si>
     <t>杨雯婷</t>
   </si>
   <si>
-    <t>IToaOA</t>
+    <t>450616</t>
   </si>
   <si>
     <t>刘元阡</t>
   </si>
   <si>
-    <t>3lO2h^</t>
+    <t>010875</t>
   </si>
   <si>
     <t>曾宏源</t>
   </si>
   <si>
-    <t>nJYwMn</t>
+    <t>904638</t>
   </si>
   <si>
     <t>严教豪</t>
   </si>
   <si>
-    <t>b!WyCu</t>
+    <t>931409</t>
   </si>
   <si>
     <t>陈汲极</t>
   </si>
   <si>
-    <t>e1zqm5</t>
+    <t>638845</t>
   </si>
   <si>
     <t>温韩飞</t>
   </si>
   <si>
-    <t>V^6QvA</t>
+    <t>647403</t>
   </si>
   <si>
     <t>林明超</t>
   </si>
   <si>
-    <t>FoKeaY</t>
+    <t>295086</t>
   </si>
   <si>
     <t>符雅雯</t>
   </si>
   <si>
-    <t>%~GtSt</t>
+    <t>012597</t>
   </si>
   <si>
     <t>王源</t>
   </si>
   <si>
-    <t>%mj*k&amp;</t>
+    <t>463802</t>
   </si>
   <si>
     <t>武博仲</t>
   </si>
   <si>
-    <t>kqn#gA</t>
+    <t>269675</t>
   </si>
   <si>
     <t>张荣晔</t>
   </si>
   <si>
-    <t>xB4oS*</t>
+    <t>346951</t>
   </si>
   <si>
     <t>左一睿</t>
   </si>
   <si>
-    <t>id~brO</t>
+    <t>150379</t>
   </si>
   <si>
     <t>唐才乐</t>
   </si>
   <si>
-    <t>L9T!zU</t>
+    <t>056475</t>
   </si>
   <si>
     <t>曹歆然</t>
   </si>
   <si>
-    <t>E&amp;b#rI</t>
+    <t>116080</t>
   </si>
   <si>
     <t>吴树良</t>
   </si>
   <si>
-    <t>5tGwyk</t>
+    <t>253111</t>
   </si>
   <si>
     <t>陈思宇</t>
   </si>
   <si>
-    <t>zod811</t>
+    <t>767305</t>
   </si>
   <si>
     <t>李文博</t>
   </si>
   <si>
-    <t>&amp;Bj6X%</t>
+    <t>668697</t>
   </si>
   <si>
     <t>牟桐瑶</t>
   </si>
   <si>
-    <t>*#nvq^</t>
+    <t>438513</t>
   </si>
   <si>
     <t>曹玥</t>
   </si>
   <si>
-    <t>3K*i*#</t>
+    <t>608745</t>
   </si>
   <si>
     <t>周家旺</t>
   </si>
   <si>
-    <t>CV1Bq6</t>
+    <t>334253</t>
   </si>
   <si>
     <t>王雪玲</t>
   </si>
   <si>
-    <t>&amp;SDMEw</t>
+    <t>422088</t>
   </si>
   <si>
     <t>曾令杰</t>
   </si>
   <si>
-    <t>pdDvbw</t>
+    <t>961210</t>
   </si>
   <si>
     <t>陈继聪</t>
   </si>
   <si>
-    <t>YtXchC</t>
+    <t>687669</t>
   </si>
   <si>
     <t>陈堇墨</t>
   </si>
   <si>
-    <t>i*&amp;4S~</t>
+    <t>460432</t>
   </si>
   <si>
     <t>陈伟鹏</t>
   </si>
   <si>
-    <t>PywEoW</t>
+    <t>715024</t>
   </si>
   <si>
     <t>程俊喆</t>
   </si>
   <si>
-    <t>vtsteh</t>
+    <t>045997</t>
   </si>
   <si>
     <t>范馨予</t>
   </si>
   <si>
-    <t>kEmjWF</t>
+    <t>114135</t>
   </si>
   <si>
     <t>符芳卓</t>
   </si>
   <si>
-    <t>kpy9$k</t>
+    <t>471736</t>
   </si>
   <si>
     <t>符祺琳</t>
   </si>
   <si>
-    <t>xcEzAR</t>
+    <t>798146</t>
   </si>
   <si>
     <t>洪智贤</t>
   </si>
   <si>
-    <t>my#wbT</t>
+    <t>200315</t>
   </si>
   <si>
     <t>黄彩玲</t>
   </si>
   <si>
-    <t>zqjp6E</t>
+    <t>220398</t>
   </si>
   <si>
     <t>黄子圆</t>
   </si>
   <si>
-    <t>iO7o%c</t>
+    <t>517390</t>
   </si>
   <si>
     <t>黎宇翔</t>
   </si>
   <si>
-    <t>4oYBsb</t>
+    <t>332228</t>
   </si>
   <si>
     <t>李文潮</t>
   </si>
   <si>
-    <t>KfzLuj</t>
+    <t>180890</t>
   </si>
   <si>
     <t>李欣瑶</t>
   </si>
   <si>
-    <t>j2H@xE</t>
+    <t>090262</t>
   </si>
   <si>
     <t>林祺超</t>
   </si>
   <si>
-    <t>nZWCHZ</t>
+    <t>065582</t>
   </si>
   <si>
     <t>林艺精</t>
   </si>
   <si>
-    <t>8dai*q</t>
+    <t>850908</t>
   </si>
   <si>
     <t>龙俊腾</t>
   </si>
   <si>
-    <t>6urrN~</t>
+    <t>428833</t>
   </si>
   <si>
     <t>罗 荏</t>
   </si>
   <si>
-    <t>acqkMF</t>
+    <t>020609</t>
   </si>
   <si>
     <t>莫僮深</t>
   </si>
   <si>
-    <t>nFrAOM</t>
+    <t>206274</t>
   </si>
   <si>
     <t>莫耘菲</t>
   </si>
   <si>
-    <t>q^egBR</t>
+    <t>309041</t>
   </si>
   <si>
     <t>任琪潼</t>
   </si>
   <si>
-    <t>i5V9%Y</t>
+    <t>138314</t>
   </si>
   <si>
     <t>苏利拓</t>
   </si>
   <si>
-    <t>PMFEPo</t>
+    <t>864336</t>
   </si>
   <si>
     <t>唐嘉豪</t>
   </si>
   <si>
-    <t>24LcbT</t>
+    <t>644534</t>
   </si>
   <si>
     <t>唐欣妍</t>
   </si>
   <si>
-    <t>ypjYBF</t>
+    <t>967700</t>
   </si>
   <si>
     <t>王国阳</t>
   </si>
   <si>
-    <t>$7gHDg</t>
+    <t>289022</t>
   </si>
   <si>
     <t>王 蕾</t>
   </si>
   <si>
-    <t>94i@m5</t>
+    <t>719423</t>
   </si>
   <si>
     <t>王平语</t>
   </si>
   <si>
-    <t>G9%B2v</t>
+    <t>195273</t>
   </si>
   <si>
     <t>符慧琳</t>
   </si>
   <si>
-    <t>!wp5Jq</t>
+    <t>413507</t>
   </si>
   <si>
     <t>吴  涵</t>
   </si>
   <si>
-    <t>Nmxaon</t>
+    <t>082175</t>
   </si>
   <si>
     <t>吴挺梁</t>
   </si>
   <si>
-    <t>#nLL*u</t>
+    <t>262313</t>
   </si>
   <si>
     <t>冼康一</t>
   </si>
   <si>
-    <t>x8$P*k</t>
+    <t>147107</t>
   </si>
   <si>
     <t>肖 茜</t>
   </si>
   <si>
-    <t>yglRaK</t>
+    <t>508692</t>
   </si>
   <si>
     <t>严教昕</t>
   </si>
   <si>
-    <t>qJHmf~</t>
+    <t>871410</t>
   </si>
   <si>
     <t>杨 珊</t>
   </si>
   <si>
-    <t>@1JFhJ</t>
+    <t>999638</t>
   </si>
   <si>
     <t>张  渝</t>
   </si>
   <si>
-    <t>nTP0tU</t>
+    <t>520764</t>
   </si>
   <si>
     <t>周梦琳</t>
   </si>
   <si>
-    <t>PD@GpI</t>
+    <t>839635</t>
   </si>
   <si>
     <t>周奕轩</t>
   </si>
   <si>
-    <t>Kgj@&amp;Z</t>
+    <t>229140</t>
   </si>
   <si>
     <t>杜婉茹</t>
   </si>
   <si>
-    <t>u@GCOi</t>
+    <t>098076</t>
   </si>
   <si>
     <t>方 浩</t>
   </si>
   <si>
-    <t>5AmNfW</t>
+    <t>890208</t>
   </si>
 </sst>
 </file>
@@ -1959,10 +1959,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1984,17 +1984,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2029,31 +2052,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2082,6 +2122,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2089,54 +2136,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2163,7 +2163,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2187,31 +2199,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2253,13 +2277,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2283,7 +2319,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2295,55 +2331,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2410,50 +2410,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2482,154 +2438,198 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2645,7 +2645,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2976,7 +2976,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="27.95" customHeight="1" outlineLevelCol="2"/>

--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="13425" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="631">
   <si>
     <t>序号</t>
   </si>
@@ -1953,18 +1953,24 @@
   <si>
     <t>890208</t>
   </si>
+  <si>
+    <t>陈国奕</t>
+  </si>
+  <si>
+    <t>文嘉伟</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1984,33 +1990,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2021,25 +2010,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2059,9 +2039,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2077,14 +2108,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2099,15 +2130,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2115,30 +2148,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2163,19 +2182,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2193,139 +2344,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2337,13 +2362,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2385,26 +2404,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2424,17 +2458,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2449,192 +2501,159 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2646,6 +2665,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2969,14 +2997,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C314"/>
+  <dimension ref="A1:C316"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B314" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="E315" sqref="E315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="27.95" customHeight="1" outlineLevelCol="2"/>
@@ -3373,13 +3401,13 @@
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:3">
-      <c r="A36" s="2">
+      <c r="A36" s="5">
         <v>190135</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3681,13 +3709,13 @@
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:3">
-      <c r="A64" s="2">
+      <c r="A64" s="5">
         <v>190222</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="7" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3879,13 +3907,13 @@
       </c>
     </row>
     <row r="82" customHeight="1" spans="1:3">
-      <c r="A82" s="2">
+      <c r="A82" s="5">
         <v>190302</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="7" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4198,13 +4226,13 @@
       </c>
     </row>
     <row r="111" customHeight="1" spans="1:3">
-      <c r="A111" s="2">
+      <c r="A111" s="5">
         <v>190331</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C111" s="7" t="s">
         <v>222</v>
       </c>
     </row>
@@ -4638,13 +4666,13 @@
       </c>
     </row>
     <row r="151" customHeight="1" spans="1:3">
-      <c r="A151" s="2">
+      <c r="A151" s="5">
         <v>190434</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B151" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="C151" s="4" t="s">
+      <c r="C151" s="7" t="s">
         <v>302</v>
       </c>
     </row>
@@ -5078,13 +5106,13 @@
       </c>
     </row>
     <row r="191" customHeight="1" spans="1:3">
-      <c r="A191" s="2">
+      <c r="A191" s="5">
         <v>190534</v>
       </c>
-      <c r="B191" s="3" t="s">
+      <c r="B191" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="C191" s="4" t="s">
+      <c r="C191" s="7" t="s">
         <v>382</v>
       </c>
     </row>
@@ -5221,13 +5249,13 @@
       </c>
     </row>
     <row r="204" customHeight="1" spans="1:3">
-      <c r="A204" s="2">
+      <c r="A204" s="5">
         <v>190608</v>
       </c>
-      <c r="B204" s="3" t="s">
+      <c r="B204" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="C204" s="4" t="s">
+      <c r="C204" s="7" t="s">
         <v>408</v>
       </c>
     </row>
@@ -5507,13 +5535,13 @@
       </c>
     </row>
     <row r="230" customHeight="1" spans="1:3">
-      <c r="A230" s="2">
+      <c r="A230" s="5">
         <v>190634</v>
       </c>
-      <c r="B230" s="3" t="s">
+      <c r="B230" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="C230" s="4" t="s">
+      <c r="C230" s="7" t="s">
         <v>460</v>
       </c>
     </row>
@@ -6439,6 +6467,28 @@
       </c>
       <c r="C314" s="4" t="s">
         <v>628</v>
+      </c>
+    </row>
+    <row r="315" customHeight="1" spans="1:3">
+      <c r="A315" s="5">
+        <v>190739</v>
+      </c>
+      <c r="B315" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="C315" s="7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="316" customHeight="1" spans="1:3">
+      <c r="A316" s="5">
+        <v>190540</v>
+      </c>
+      <c r="B316" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="C316" s="7" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>

--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -7,8 +7,8 @@
     <workbookView windowWidth="25600" windowHeight="22660" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2019届" sheetId="1" r:id="rId1"/>
-    <sheet name="2020届" sheetId="2" r:id="rId2"/>
+    <sheet name="2019级" sheetId="1" r:id="rId1"/>
+    <sheet name="2020级" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -4153,8 +4153,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -4220,6 +4220,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -4228,24 +4251,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4269,14 +4292,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -4290,6 +4305,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -4298,18 +4320,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4321,15 +4342,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4337,21 +4351,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4384,7 +4384,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4396,19 +4516,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4420,91 +4546,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4516,49 +4558,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4609,26 +4609,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4644,6 +4644,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4674,172 +4683,163 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4871,7 +4871,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -4880,7 +4880,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4889,8 +4889,8 @@
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规_Sheet1" xfId="2"/>
+    <cellStyle name="常规_Sheet1" xfId="1"/>
+    <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="3" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="4" builtinId="42"/>
     <cellStyle name="强调文字颜色 4" xfId="5" builtinId="41"/>
@@ -8714,7 +8714,7 @@
   <dimension ref="A1:C391"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A369" workbookViewId="0">
-      <selection activeCell="F383" sqref="F383"/>
+      <selection activeCell="D378" sqref="D378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="2"/>
